--- a/Tests/Validation/System/NZRiskIndexTool/RITTemplate2025_7740Obs.xlsx
+++ b/Tests/Validation/System/NZRiskIndexTool/RITTemplate2025_7740Obs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaUnderVC\ApsimX\Tests\Validation\System\NZRiskIndexTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BAA70-77E4-44AB-9C7B-D4EAC2DC966E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232FAE7-974E-40D1-9674-D7D68658F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="1290" windowWidth="38940" windowHeight="19095" xr2:uid="{EF6CDDDD-7646-4185-8460-A519E6392745}"/>
+    <workbookView xWindow="5715" yWindow="630" windowWidth="38940" windowHeight="19095" xr2:uid="{EF6CDDDD-7646-4185-8460-A519E6392745}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarked2025" sheetId="1" r:id="rId1"/>
@@ -1366,49 +1366,49 @@
         <v>25</v>
       </c>
       <c r="J3">
-        <v>1.8295399510785699</v>
+        <v>1.0682905997344001</v>
       </c>
       <c r="K3">
-        <v>1.6936740210688701</v>
+        <v>8.7872480180247798</v>
       </c>
       <c r="L3">
-        <v>3.16203763589886</v>
+        <v>15.573466740328501</v>
       </c>
       <c r="M3">
-        <v>3.8861543736916002</v>
+        <v>20.154397789664799</v>
       </c>
       <c r="N3">
-        <v>44.430266126689901</v>
+        <v>127.74318555741399</v>
       </c>
       <c r="O3">
-        <v>138.45565868575599</v>
+        <v>108.989160629559</v>
       </c>
       <c r="P3">
-        <v>24.064387718270499</v>
+        <v>16.980299061521499</v>
       </c>
       <c r="Q3">
-        <v>3.6761083984985499</v>
+        <v>2.6863004503171699</v>
       </c>
       <c r="R3">
-        <v>13880.6711532019</v>
+        <v>14089.9650852626</v>
       </c>
       <c r="S3">
-        <v>491.75608109757201</v>
+        <v>499.75396700313098</v>
       </c>
       <c r="T3">
         <v>864.899997353554</v>
       </c>
       <c r="U3">
-        <v>1006.96130141128</v>
+        <v>1052.6916881750899</v>
       </c>
       <c r="V3">
         <v>450</v>
       </c>
       <c r="W3">
-        <v>1681.79003579702</v>
+        <v>1682.09593297535</v>
       </c>
       <c r="X3">
-        <v>7.5198071636276298</v>
+        <v>7.0580458238575803</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1514,49 +1514,49 @@
         <v>27</v>
       </c>
       <c r="J5">
-        <v>11.1406510005933</v>
+        <v>9.4538028824006304</v>
       </c>
       <c r="K5">
-        <v>4.28566696670193</v>
+        <v>9.3055295528248898</v>
       </c>
       <c r="L5">
-        <v>4.8256114606772904</v>
+        <v>13.1990304950116</v>
       </c>
       <c r="M5">
-        <v>5.3110488783377097</v>
+        <v>15.0551540732597</v>
       </c>
       <c r="N5">
-        <v>290.04851808384399</v>
+        <v>481.32126165010601</v>
       </c>
       <c r="O5">
-        <v>1152.0905764460499</v>
+        <v>980.33931580316005</v>
       </c>
       <c r="P5">
-        <v>49.3430635102076</v>
+        <v>45.6185087692567</v>
       </c>
       <c r="Q5">
-        <v>6.9197474876370899</v>
+        <v>6.4165178376554204</v>
       </c>
       <c r="R5">
-        <v>14562.0420933942</v>
+        <v>14936.2458071083</v>
       </c>
       <c r="S5">
-        <v>517.55859701377699</v>
+        <v>526.48573598045698</v>
       </c>
       <c r="T5">
         <v>2718.4999966621399</v>
       </c>
       <c r="U5">
-        <v>472.66484717317098</v>
+        <v>519.70101607853496</v>
       </c>
       <c r="V5">
         <v>450</v>
       </c>
       <c r="W5">
-        <v>1734.2315068779899</v>
+        <v>1736.32043766942</v>
       </c>
       <c r="X5">
-        <v>7.12450659654872</v>
+        <v>5.8740343226689804</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1662,49 +1662,49 @@
         <v>29</v>
       </c>
       <c r="J7">
-        <v>29.3707471699074</v>
+        <v>22.143517093307299</v>
       </c>
       <c r="K7">
-        <v>1.18911778408055</v>
+        <v>6.6340457928126702</v>
       </c>
       <c r="L7">
-        <v>17.554541380573198</v>
+        <v>27.3729698208397</v>
       </c>
       <c r="M7">
-        <v>30.571658521261501</v>
+        <v>47.244982033868098</v>
       </c>
       <c r="N7">
-        <v>2004.6858479826101</v>
+        <v>2493.4791939646002</v>
       </c>
       <c r="O7">
-        <v>2866.6663378063299</v>
+        <v>2380.8849496766502</v>
       </c>
       <c r="P7">
-        <v>49.488773708827601</v>
+        <v>41.9973318621036</v>
       </c>
       <c r="Q7">
-        <v>5.0590418812008799</v>
+        <v>4.6734851046044499</v>
       </c>
       <c r="R7">
-        <v>13050.9722513953</v>
+        <v>11470.8277879909</v>
       </c>
       <c r="S7">
-        <v>490.16304070861401</v>
+        <v>446.32168171477298</v>
       </c>
       <c r="T7">
         <v>6038.8000096082696</v>
       </c>
       <c r="U7">
-        <v>311.10975742864099</v>
+        <v>275.16899634572599</v>
       </c>
       <c r="V7">
         <v>450</v>
       </c>
       <c r="W7">
-        <v>1491.5030355423501</v>
+        <v>1467.87098806722</v>
       </c>
       <c r="X7">
-        <v>-0.21269460553411601</v>
+        <v>1.0592467004164501</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>101.99985893055801</v>
+        <v>101.853258668351</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1822,37 +1822,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.6767560340781599E-3</v>
+        <v>6.88316628443848</v>
       </c>
       <c r="O9">
-        <v>301.06217003296302</v>
+        <v>294.63753619485999</v>
       </c>
       <c r="P9">
-        <v>7.6718192983221698</v>
+        <v>7.6603758895189298</v>
       </c>
       <c r="Q9">
-        <v>1.1693271355844701</v>
+        <v>1.1681119758293801</v>
       </c>
       <c r="R9">
-        <v>11273.469963481301</v>
+        <v>11280.0811047813</v>
       </c>
       <c r="S9">
-        <v>419.74494640626801</v>
+        <v>419.82970994775502</v>
       </c>
       <c r="T9">
         <v>864.899997353554</v>
       </c>
       <c r="U9">
-        <v>896.54195248247299</v>
+        <v>896.824596981578</v>
       </c>
       <c r="V9">
         <v>450</v>
       </c>
       <c r="W9">
-        <v>1469.5938461620201</v>
+        <v>1469.47342118038</v>
       </c>
       <c r="X9">
-        <v>0.41530079198165398</v>
+        <v>0.34274540707662798</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>27</v>
       </c>
       <c r="J11">
-        <v>30.516248371899501</v>
+        <v>29.462385155760501</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1970,37 +1970,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>35.704007990499399</v>
+        <v>144.25028055657501</v>
       </c>
       <c r="O11">
-        <v>1536.18363558738</v>
+        <v>1425.0052812046599</v>
       </c>
       <c r="P11">
-        <v>13.2500451456881</v>
+        <v>13.240474774798599</v>
       </c>
       <c r="Q11">
-        <v>2.5266634523585001</v>
+        <v>2.5274437697914398</v>
       </c>
       <c r="R11">
-        <v>10906.011081102</v>
+        <v>10830.919049731199</v>
       </c>
       <c r="S11">
-        <v>451.15190494874798</v>
+        <v>448.64246175329902</v>
       </c>
       <c r="T11">
         <v>2718.4999966621399</v>
       </c>
       <c r="U11">
-        <v>497.93872567045298</v>
+        <v>496.55703305936902</v>
       </c>
       <c r="V11">
         <v>450</v>
       </c>
       <c r="W11">
-        <v>1620.83955313967</v>
+        <v>1622.1399973617399</v>
       </c>
       <c r="X11">
-        <v>5.9216769902128599</v>
+        <v>6.1554743644462704</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2106,49 +2106,49 @@
         <v>29</v>
       </c>
       <c r="J13">
-        <v>113.22409249008599</v>
+        <v>112.103129705477</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.96226010183100696</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.74230955020959</v>
       </c>
       <c r="N13">
-        <v>388.339179671198</v>
+        <v>963.51050574907697</v>
       </c>
       <c r="O13">
-        <v>4639.8473107270402</v>
+        <v>4065.2335439717999</v>
       </c>
       <c r="P13">
-        <v>10.2430031764647</v>
+        <v>10.160064108643599</v>
       </c>
       <c r="Q13">
-        <v>1.39348574183383</v>
+        <v>1.38758570822004</v>
       </c>
       <c r="R13">
-        <v>11545.322128965399</v>
+        <v>11583.986386185999</v>
       </c>
       <c r="S13">
-        <v>439.42912688550598</v>
+        <v>440.61059930848501</v>
       </c>
       <c r="T13">
         <v>6038.8000096082696</v>
       </c>
       <c r="U13">
-        <v>374.876264003389</v>
+        <v>375.14794308755398</v>
       </c>
       <c r="V13">
         <v>450</v>
       </c>
       <c r="W13">
-        <v>1395.7787357406601</v>
+        <v>1395.26485956392</v>
       </c>
       <c r="X13">
-        <v>4.0548192265168197</v>
+        <v>4.0336210030789399</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>25</v>
       </c>
       <c r="J15">
-        <v>2.9812637301402098</v>
+        <v>2.7929578676864502</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2266,37 +2266,37 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.9716639652492003E-2</v>
+        <v>10.3487944737536</v>
       </c>
       <c r="O15">
-        <v>122.25655018357899</v>
+        <v>107.609815870296</v>
       </c>
       <c r="P15">
-        <v>0.97765414722132704</v>
+        <v>0.97695935220570296</v>
       </c>
       <c r="Q15">
-        <v>0.39759846235618601</v>
+        <v>0.39772141986414</v>
       </c>
       <c r="R15">
-        <v>11162.840797512599</v>
+        <v>11165.285078639299</v>
       </c>
       <c r="S15">
-        <v>438.341356343889</v>
+        <v>438.32519362715499</v>
       </c>
       <c r="T15">
         <v>864.899997353554</v>
       </c>
       <c r="U15">
-        <v>769.591938048712</v>
+        <v>773.37793261041895</v>
       </c>
       <c r="V15">
         <v>450</v>
       </c>
       <c r="W15">
-        <v>1571.3006248690999</v>
+        <v>1571.75501795021</v>
       </c>
       <c r="X15">
-        <v>-3.0555565289289501</v>
+        <v>-2.78173151874469</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2402,49 +2402,49 @@
         <v>27</v>
       </c>
       <c r="J17">
-        <v>18.1674663195578</v>
+        <v>16.817348384689399</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.56201813368575504</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.57901908615853703</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.57901908615853703</v>
       </c>
       <c r="N17">
-        <v>65.180798521008697</v>
+        <v>212.44928906586301</v>
       </c>
       <c r="O17">
-        <v>1389.6022572721099</v>
+        <v>1246.8187142873601</v>
       </c>
       <c r="P17">
-        <v>1.7290956556080499</v>
+        <v>1.65978037011834</v>
       </c>
       <c r="Q17">
-        <v>0.59594958982082002</v>
+        <v>0.58894939420419901</v>
       </c>
       <c r="R17">
-        <v>10735.558092016399</v>
+        <v>10742.1141810316</v>
       </c>
       <c r="S17">
-        <v>449.12021458442899</v>
+        <v>449.30240286225199</v>
       </c>
       <c r="T17">
         <v>2718.4999966621399</v>
       </c>
       <c r="U17">
-        <v>324.37103883442302</v>
+        <v>324.78990496007799</v>
       </c>
       <c r="V17">
         <v>450</v>
       </c>
       <c r="W17">
-        <v>1637.4621722576901</v>
+        <v>1639.8477110265901</v>
       </c>
       <c r="X17">
-        <v>5.7580401764509102</v>
+        <v>5.3873977997402402</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -2550,49 +2550,49 @@
         <v>29</v>
       </c>
       <c r="J19">
-        <v>15.9655944619893</v>
+        <v>15.5775502373855</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.1344369909928</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.3594354024262998</v>
       </c>
       <c r="N19">
-        <v>620.42349145481603</v>
+        <v>1188.8829502103899</v>
       </c>
       <c r="O19">
-        <v>4246.9067447856696</v>
+        <v>3717.4658692829498</v>
       </c>
       <c r="P19">
-        <v>1.2273308167918899</v>
+        <v>1.2255974694894101</v>
       </c>
       <c r="Q19">
-        <v>0.306952810900047</v>
+        <v>0.311534425695634</v>
       </c>
       <c r="R19">
-        <v>10904.479989866501</v>
+        <v>10926.7976907832</v>
       </c>
       <c r="S19">
-        <v>440.14888069847899</v>
+        <v>440.94215324227702</v>
       </c>
       <c r="T19">
         <v>6038.8000096082696</v>
       </c>
       <c r="U19">
-        <v>168.70410282520101</v>
+        <v>166.06380985205499</v>
       </c>
       <c r="V19">
         <v>450</v>
       </c>
       <c r="W19">
-        <v>1392.2904050464699</v>
+        <v>1351.66345663115</v>
       </c>
       <c r="X19">
-        <v>0.75103923866810995</v>
+        <v>1.16187636689616</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>1.4609152403749199</v>
+        <v>1.4343750175327601</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.47297755643511702</v>
+        <v>3.6349978842308301</v>
       </c>
       <c r="O21">
-        <v>13.0290579706817</v>
+        <v>13.5493923072111</v>
       </c>
       <c r="P21">
-        <v>0.42095106033679203</v>
+        <v>0.34277228578965502</v>
       </c>
       <c r="Q21">
-        <v>9.6641021507467895E-2</v>
+        <v>8.4638678133008793E-2</v>
       </c>
       <c r="R21">
-        <v>10492.689853174999</v>
+        <v>10476.4754431437</v>
       </c>
       <c r="S21">
-        <v>382.77134134570798</v>
+        <v>382.48935106096002</v>
       </c>
       <c r="T21">
         <v>864.899997353554</v>
@@ -2737,10 +2737,10 @@
         <v>450</v>
       </c>
       <c r="W21">
-        <v>906.45283604527003</v>
+        <v>904.148222698155</v>
       </c>
       <c r="X21">
-        <v>3.3926321978373299</v>
+        <v>3.4333149224444002</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2846,34 +2846,34 @@
         <v>27</v>
       </c>
       <c r="J23">
-        <v>34.425216541634903</v>
+        <v>29.308781622383201</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.29723168082505302</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.29723168082505302</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.29723168082505302</v>
       </c>
       <c r="N23">
-        <v>229.532913687677</v>
+        <v>379.31664684099502</v>
       </c>
       <c r="O23">
-        <v>916.59845522601302</v>
+        <v>771.08886146937505</v>
       </c>
       <c r="P23">
-        <v>45.659818214253598</v>
+        <v>43.1416508665517</v>
       </c>
       <c r="Q23">
-        <v>2.5779824159664599</v>
+        <v>2.4214669187702098</v>
       </c>
       <c r="R23">
-        <v>14890.7409750637</v>
+        <v>14824.394815002201</v>
       </c>
       <c r="S23">
-        <v>481.41037417378499</v>
+        <v>479.96520806419602</v>
       </c>
       <c r="T23">
         <v>2718.4999966621399</v>
@@ -2885,10 +2885,10 @@
         <v>450</v>
       </c>
       <c r="W23">
-        <v>1548.51561296201</v>
+        <v>1543.9922123931401</v>
       </c>
       <c r="X23">
-        <v>6.2059306785633099</v>
+        <v>7.27265215567986</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2994,34 +2994,34 @@
         <v>29</v>
       </c>
       <c r="J25">
-        <v>104.623455936455</v>
+        <v>99.756781800046795</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.39910871482709698</v>
       </c>
       <c r="M25">
-        <v>4.3861045481335097</v>
+        <v>7.9625185858569196</v>
       </c>
       <c r="N25">
-        <v>1934.7794509364601</v>
+        <v>2383.0053388412598</v>
       </c>
       <c r="O25">
-        <v>2785.01136032971</v>
+        <v>2339.401780055</v>
       </c>
       <c r="P25">
-        <v>38.937715179373498</v>
+        <v>42.556421880958801</v>
       </c>
       <c r="Q25">
-        <v>1.77787325122962</v>
+        <v>1.9013988042124199</v>
       </c>
       <c r="R25">
-        <v>11879.8584105023</v>
+        <v>13194.0156834029</v>
       </c>
       <c r="S25">
-        <v>415.63961584915501</v>
+        <v>456.435332799793</v>
       </c>
       <c r="T25">
         <v>6038.8000096082696</v>
@@ -3033,10 +3033,10 @@
         <v>450</v>
       </c>
       <c r="W25">
-        <v>1408.62609781897</v>
+        <v>1405.10698595444</v>
       </c>
       <c r="X25">
-        <v>-0.97925725642121897</v>
+        <v>-0.80979743354723999</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>25</v>
       </c>
       <c r="J27">
-        <v>363.11733212351101</v>
+        <v>361.21031719038501</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3154,22 +3154,22 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1.38257350866256E-4</v>
+        <v>4.8719913630271598</v>
       </c>
       <c r="O27">
-        <v>220.16317842526999</v>
+        <v>215.077502766386</v>
       </c>
       <c r="P27">
-        <v>19.303112797727401</v>
+        <v>19.424384583871099</v>
       </c>
       <c r="Q27">
-        <v>3.16837579377539</v>
+        <v>3.2173759842562499</v>
       </c>
       <c r="R27">
-        <v>1640.6816847708899</v>
+        <v>1685.85147299032</v>
       </c>
       <c r="S27">
-        <v>38.551136780181103</v>
+        <v>39.838390480525497</v>
       </c>
       <c r="T27">
         <v>864.899997353554</v>
@@ -3181,10 +3181,10 @@
         <v>450</v>
       </c>
       <c r="W27">
-        <v>659.20713835943002</v>
+        <v>659.467540967368</v>
       </c>
       <c r="X27">
-        <v>-2.4446840551867002</v>
+        <v>-2.3921434091293299</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -3290,7 +3290,7 @@
         <v>27</v>
       </c>
       <c r="J29">
-        <v>180.464498292141</v>
+        <v>178.29449679601501</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3302,22 +3302,22 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>21.356238302207501</v>
+        <v>99.170713555897294</v>
       </c>
       <c r="O29">
-        <v>1430.4020270789799</v>
+        <v>1351.67232372494</v>
       </c>
       <c r="P29">
-        <v>17.935029372115999</v>
+        <v>17.991405174895601</v>
       </c>
       <c r="Q29">
-        <v>2.5817895736524101</v>
+        <v>2.58821227895048</v>
       </c>
       <c r="R29">
-        <v>9387.8142704989205</v>
+        <v>9428.7502826673608</v>
       </c>
       <c r="S29">
-        <v>325.21989749769301</v>
+        <v>326.63826657827002</v>
       </c>
       <c r="T29">
         <v>2718.4999966621399</v>
@@ -3329,10 +3329,10 @@
         <v>450</v>
       </c>
       <c r="W29">
-        <v>1234.4732951887099</v>
+        <v>1234.63570877302</v>
       </c>
       <c r="X29">
-        <v>5.9440277289629098</v>
+        <v>5.9847860520233302</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -3438,34 +3438,34 @@
         <v>29</v>
       </c>
       <c r="J31">
-        <v>204.960378338975</v>
+        <v>203.37196683850499</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.96226010183100696</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2.2861761395626501</v>
       </c>
       <c r="N31">
-        <v>359.88023597400201</v>
+        <v>901.57139933035705</v>
       </c>
       <c r="O31">
-        <v>4578.1119942937903</v>
+        <v>4036.47283286333</v>
       </c>
       <c r="P31">
-        <v>18.297562512872901</v>
+        <v>18.208130414628599</v>
       </c>
       <c r="Q31">
-        <v>2.75158359337096</v>
+        <v>2.7709149009693901</v>
       </c>
       <c r="R31">
-        <v>6928.27973758179</v>
+        <v>6954.5052963757098</v>
       </c>
       <c r="S31">
-        <v>243.450756883205</v>
+        <v>244.53135086231799</v>
       </c>
       <c r="T31">
         <v>6038.8000096082696</v>
@@ -3477,10 +3477,10 @@
         <v>450</v>
       </c>
       <c r="W31">
-        <v>1123.4297460315699</v>
+        <v>1123.41744661402</v>
       </c>
       <c r="X31">
-        <v>2.6576943284393999</v>
+        <v>2.6246764435593501</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
         <v>25</v>
       </c>
       <c r="J33">
-        <v>11.3547542971684</v>
+        <v>11.270481529590199</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3598,22 +3598,22 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>3.8265669045986899</v>
       </c>
       <c r="O33">
-        <v>26.9011852928416</v>
+        <v>26.9806174265468</v>
       </c>
       <c r="P33">
-        <v>1.20647632733425</v>
+        <v>1.1991404718797001</v>
       </c>
       <c r="Q33">
-        <v>0.46070807584821499</v>
+        <v>0.45941387027536201</v>
       </c>
       <c r="R33">
-        <v>9991.7473195960192</v>
+        <v>10055.600434899599</v>
       </c>
       <c r="S33">
-        <v>351.684673921794</v>
+        <v>350.759651563462</v>
       </c>
       <c r="T33">
         <v>864.899997353554</v>
@@ -3625,10 +3625,10 @@
         <v>450</v>
       </c>
       <c r="W33">
-        <v>902.94092281957205</v>
+        <v>899.96729126043999</v>
       </c>
       <c r="X33">
-        <v>14.181104162354501</v>
+        <v>14.2318232724674</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -3734,34 +3734,34 @@
         <v>27</v>
       </c>
       <c r="J35">
-        <v>15.1514989199051</v>
+        <v>14.2077588046697</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.103272542219497</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.103272542219497</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.103272542219497</v>
       </c>
       <c r="N35">
-        <v>79.371036436800395</v>
+        <v>256.92792134568401</v>
       </c>
       <c r="O35">
-        <v>1188.82181895087</v>
+        <v>1016.4061195836</v>
       </c>
       <c r="P35">
-        <v>1.3556199392969299</v>
+        <v>1.3098068507370699</v>
       </c>
       <c r="Q35">
-        <v>0.45597031413049</v>
+        <v>0.45090611820555598</v>
       </c>
       <c r="R35">
-        <v>10675.874592615201</v>
+        <v>10679.2454318747</v>
       </c>
       <c r="S35">
-        <v>419.80685495854902</v>
+        <v>419.82587099729398</v>
       </c>
       <c r="T35">
         <v>2718.4999966621399</v>
@@ -3773,10 +3773,10 @@
         <v>450</v>
       </c>
       <c r="W35">
-        <v>1487.7020589769299</v>
+        <v>1488.57872116003</v>
       </c>
       <c r="X35">
-        <v>5.52082704236095</v>
+        <v>4.8572255831775601</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3882,34 +3882,34 @@
         <v>29</v>
       </c>
       <c r="J37">
-        <v>29.138684717121102</v>
+        <v>28.8608746782735</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1.0116363764801699</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>4.0037969122261803</v>
       </c>
       <c r="N37">
-        <v>476.78853136309101</v>
+        <v>1105.7064063539599</v>
       </c>
       <c r="O37">
-        <v>4350.3715861750397</v>
+        <v>3723.7957131815101</v>
       </c>
       <c r="P37">
-        <v>1.17342499016727</v>
+        <v>1.15482080472742</v>
       </c>
       <c r="Q37">
-        <v>0.30617471011561498</v>
+        <v>0.30247492343528898</v>
       </c>
       <c r="R37">
-        <v>10825.2020446268</v>
+        <v>10842.912334152399</v>
       </c>
       <c r="S37">
-        <v>413.89004524745201</v>
+        <v>414.34463699757202</v>
       </c>
       <c r="T37">
         <v>6038.8000096082696</v>
@@ -3921,10 +3921,10 @@
         <v>450</v>
       </c>
       <c r="W37">
-        <v>1308.27712627036</v>
+        <v>1308.2569021522499</v>
       </c>
       <c r="X37">
-        <v>0.40323946913702102</v>
+        <v>0.37889905574707</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -4030,49 +4030,49 @@
         <v>25</v>
       </c>
       <c r="J39">
-        <v>0.75553802865671804</v>
+        <v>0.39594707341938301</v>
       </c>
       <c r="K39">
-        <v>1.1295621062588399</v>
+        <v>6.2549034266330299</v>
       </c>
       <c r="L39">
-        <v>2.1472414939176101</v>
+        <v>12.089406303831099</v>
       </c>
       <c r="M39">
-        <v>2.6817988723083599</v>
+        <v>14.3083985585689</v>
       </c>
       <c r="N39">
-        <v>79.020311374102306</v>
+        <v>156.74657573021599</v>
       </c>
       <c r="O39">
-        <v>164.351704157059</v>
+        <v>104.299935007635</v>
       </c>
       <c r="P39">
-        <v>21.355730125960001</v>
+        <v>12.6629753647298</v>
       </c>
       <c r="Q39">
-        <v>3.6504845762615998</v>
+        <v>2.1508372056823499</v>
       </c>
       <c r="R39">
-        <v>14241.036023827301</v>
+        <v>14536.3579108101</v>
       </c>
       <c r="S39">
-        <v>517.28791391551397</v>
+        <v>527.13433073978604</v>
       </c>
       <c r="T39">
         <v>1098.2000006437299</v>
       </c>
       <c r="U39">
-        <v>834.26837286841896</v>
+        <v>834.21829583432304</v>
       </c>
       <c r="V39">
         <v>450</v>
       </c>
       <c r="W39">
-        <v>1692.76076594508</v>
+        <v>1694.5642652823101</v>
       </c>
       <c r="X39">
-        <v>5.3350736692591303</v>
+        <v>5.1368983434230104</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -4178,49 +4178,49 @@
         <v>27</v>
       </c>
       <c r="J41">
-        <v>9.9020576764439099</v>
+        <v>8.1553055661308402</v>
       </c>
       <c r="K41">
-        <v>0.66164263445601201</v>
+        <v>3.9342432245955101</v>
       </c>
       <c r="L41">
-        <v>5.7991312631797802</v>
+        <v>14.4980157984584</v>
       </c>
       <c r="M41">
-        <v>8.2209027864198791</v>
+        <v>17.953757068677199</v>
       </c>
       <c r="N41">
-        <v>394.29031641684099</v>
+        <v>599.44143470324695</v>
       </c>
       <c r="O41">
-        <v>1165.9380092705901</v>
+        <v>969.40106449986797</v>
       </c>
       <c r="P41">
-        <v>27.370232342246201</v>
+        <v>22.448583603931102</v>
       </c>
       <c r="Q41">
-        <v>3.4492944443046598</v>
+        <v>2.6599217008770299</v>
       </c>
       <c r="R41">
-        <v>14692.848399431199</v>
+        <v>14878.9132370646</v>
       </c>
       <c r="S41">
-        <v>526.53878702337897</v>
+        <v>533.00814618719699</v>
       </c>
       <c r="T41">
         <v>2886.2999973297101</v>
       </c>
       <c r="U41">
-        <v>311.36059519080499</v>
+        <v>316.37179665950202</v>
       </c>
       <c r="V41">
         <v>450</v>
       </c>
       <c r="W41">
-        <v>1651.63640048461</v>
+        <v>1657.17422582621</v>
       </c>
       <c r="X41">
-        <v>5.19011402132515</v>
+        <v>5.2705418034125699</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -4326,49 +4326,49 @@
         <v>29</v>
       </c>
       <c r="J43">
-        <v>30.421460107706299</v>
+        <v>16.084952243912799</v>
       </c>
       <c r="K43">
-        <v>25.308396741563001</v>
+        <v>35.1992912252122</v>
       </c>
       <c r="L43">
-        <v>61.359947123662799</v>
+        <v>86.139904948005096</v>
       </c>
       <c r="M43">
-        <v>121.654200910527</v>
+        <v>163.22967613330499</v>
       </c>
       <c r="N43">
-        <v>1759.2412622818099</v>
+        <v>2246.0154869501298</v>
       </c>
       <c r="O43">
-        <v>2742.8729471722399</v>
+        <v>2277.63726765207</v>
       </c>
       <c r="P43">
-        <v>123.897875432662</v>
+        <v>102.478699701775</v>
       </c>
       <c r="Q43">
-        <v>17.988709739806399</v>
+        <v>16.112423066458799</v>
       </c>
       <c r="R43">
-        <v>10860.374261357099</v>
+        <v>10865.9922971203</v>
       </c>
       <c r="S43">
-        <v>422.89768658590799</v>
+        <v>422.99049922769001</v>
       </c>
       <c r="T43">
         <v>5924.2000013589904</v>
       </c>
       <c r="U43">
-        <v>104.23287140277201</v>
+        <v>108.725402507894</v>
       </c>
       <c r="V43">
         <v>450</v>
       </c>
       <c r="W43">
-        <v>1583.67119258514</v>
+        <v>1563.59066512448</v>
       </c>
       <c r="X43">
-        <v>-2.0804844552572002</v>
+        <v>-2.3521702599343199</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -4474,7 +4474,7 @@
         <v>25</v>
       </c>
       <c r="J45">
-        <v>9.2427251841719205</v>
+        <v>8.8582350991083203</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4486,37 +4486,37 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>11.7891623951733</v>
+        <v>51.333068467150902</v>
       </c>
       <c r="O45">
-        <v>345.54831547670398</v>
+        <v>306.21777481722103</v>
       </c>
       <c r="P45">
-        <v>10.606858033353801</v>
+        <v>10.5966328193099</v>
       </c>
       <c r="Q45">
-        <v>2.1767989594086501</v>
+        <v>2.1767597748767402</v>
       </c>
       <c r="R45">
-        <v>11849.002797191701</v>
+        <v>11849.186872709201</v>
       </c>
       <c r="S45">
-        <v>470.74170320668298</v>
+        <v>470.748544969384</v>
       </c>
       <c r="T45">
         <v>1098.2000006437299</v>
       </c>
       <c r="U45">
-        <v>775.57569709068298</v>
+        <v>774.68335351042003</v>
       </c>
       <c r="V45">
         <v>450</v>
       </c>
       <c r="W45">
-        <v>1518.4372958578799</v>
+        <v>1517.3940212764801</v>
       </c>
       <c r="X45">
-        <v>4.7826820993928898</v>
+        <v>4.86312021179425</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -4622,49 +4622,49 @@
         <v>27</v>
       </c>
       <c r="J47">
-        <v>56.933221789903001</v>
+        <v>55.600751041640699</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.424559395095917</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>0.77365288983422598</v>
       </c>
       <c r="N47">
-        <v>82.038902559962594</v>
+        <v>243.34635938404901</v>
       </c>
       <c r="O47">
-        <v>1633.97240388913</v>
+        <v>1473.2515465624101</v>
       </c>
       <c r="P47">
-        <v>9.7382545123365905</v>
+        <v>9.7233594100166307</v>
       </c>
       <c r="Q47">
-        <v>1.80787790518527</v>
+        <v>1.8090294264484099</v>
       </c>
       <c r="R47">
-        <v>10652.808226179101</v>
+        <v>10604.163906567101</v>
       </c>
       <c r="S47">
-        <v>427.85501198304598</v>
+        <v>426.42470134776102</v>
       </c>
       <c r="T47">
         <v>2886.2999973297101</v>
       </c>
       <c r="U47">
-        <v>390.71820749570298</v>
+        <v>392.084756251795</v>
       </c>
       <c r="V47">
         <v>450</v>
       </c>
       <c r="W47">
-        <v>1579.5814005617599</v>
+        <v>1581.0868438177799</v>
       </c>
       <c r="X47">
-        <v>5.9089473929583498</v>
+        <v>6.0861801377275304</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -4770,49 +4770,49 @@
         <v>29</v>
       </c>
       <c r="J49">
-        <v>194.56785284914201</v>
+        <v>183.28364799330899</v>
       </c>
       <c r="K49">
-        <v>2.1038339571670499</v>
+        <v>10.256909485341399</v>
       </c>
       <c r="L49">
-        <v>3.7923005262715601</v>
+        <v>21.534393750775202</v>
       </c>
       <c r="M49">
-        <v>18.7539137994148</v>
+        <v>53.992907452609103</v>
       </c>
       <c r="N49">
-        <v>396.61268649203998</v>
+        <v>915.35780315002</v>
       </c>
       <c r="O49">
-        <v>4309.6640135459702</v>
+        <v>3789.25401226438</v>
       </c>
       <c r="P49">
-        <v>19.7238014894725</v>
+        <v>20.686814548201198</v>
       </c>
       <c r="Q49">
-        <v>2.8252868201495498</v>
+        <v>3.0001565349852499</v>
       </c>
       <c r="R49">
-        <v>10248.8759034873</v>
+        <v>10249.044498429201</v>
       </c>
       <c r="S49">
-        <v>370.13842027451898</v>
+        <v>371.917839412788</v>
       </c>
       <c r="T49">
         <v>5924.2000013589904</v>
       </c>
       <c r="U49">
-        <v>240.696856166472</v>
+        <v>243.444711626247</v>
       </c>
       <c r="V49">
         <v>450</v>
       </c>
       <c r="W49">
-        <v>1478.74683723207</v>
+        <v>1481.6165878654001</v>
       </c>
       <c r="X49">
-        <v>2.23469132217049</v>
+        <v>2.2013257846341401</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
         <v>25</v>
       </c>
       <c r="J51">
-        <v>0.94180028068824495</v>
+        <v>0.715972215453482</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4930,37 +4930,37 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>4.49414728236105</v>
+        <v>35.923588261638699</v>
       </c>
       <c r="O51">
-        <v>193.55662668784501</v>
+        <v>150.46421875933001</v>
       </c>
       <c r="P51">
-        <v>0.78866308635029703</v>
+        <v>0.78593553193532295</v>
       </c>
       <c r="Q51">
-        <v>0.34392291799047198</v>
+        <v>0.34392249137983799</v>
       </c>
       <c r="R51">
-        <v>11851.0090657196</v>
+        <v>11851.0157122074</v>
       </c>
       <c r="S51">
-        <v>467.421667848384</v>
+        <v>467.42163705580401</v>
       </c>
       <c r="T51">
         <v>1098.2000006437299</v>
       </c>
       <c r="U51">
-        <v>533.73649551103301</v>
+        <v>533.84221939904205</v>
       </c>
       <c r="V51">
         <v>450</v>
       </c>
       <c r="W51">
-        <v>1454.1028517761899</v>
+        <v>1455.2061937879901</v>
       </c>
       <c r="X51">
-        <v>-4.8752176513688497</v>
+        <v>-3.6772016382781598</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -5066,49 +5066,49 @@
         <v>27</v>
       </c>
       <c r="J53">
-        <v>13.839690064579401</v>
+        <v>12.4096623204791</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1.10806049905147</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1.4081637452907501</v>
       </c>
       <c r="N53">
-        <v>149.32544729182999</v>
+        <v>405.41010568141797</v>
       </c>
       <c r="O53">
-        <v>1403.98099184734</v>
+        <v>1161.0858687909499</v>
       </c>
       <c r="P53">
-        <v>1.0603902982309401</v>
+        <v>1.00861512007637</v>
       </c>
       <c r="Q53">
-        <v>0.39036298086771698</v>
+        <v>0.38876893800635498</v>
       </c>
       <c r="R53">
-        <v>11531.221808963301</v>
+        <v>11538.9086000557</v>
       </c>
       <c r="S53">
-        <v>461.50148101545102</v>
+        <v>461.67657042691502</v>
       </c>
       <c r="T53">
         <v>2886.2999973297101</v>
       </c>
       <c r="U53">
-        <v>139.80639024038101</v>
+        <v>161.04925115632099</v>
       </c>
       <c r="V53">
         <v>450</v>
       </c>
       <c r="W53">
-        <v>1558.76884401899</v>
+        <v>1565.0058330179399</v>
       </c>
       <c r="X53">
-        <v>7.3583300731566501</v>
+        <v>6.8969024723279597</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -5214,49 +5214,49 @@
         <v>29</v>
       </c>
       <c r="J55">
-        <v>58.761215314937999</v>
+        <v>44.356626734044703</v>
       </c>
       <c r="K55">
-        <v>1.86762978492758</v>
+        <v>9.7044296189119894</v>
       </c>
       <c r="L55">
-        <v>4.8280266847315403</v>
+        <v>25.7487888457749</v>
       </c>
       <c r="M55">
-        <v>22.029613608929001</v>
+        <v>62.055158656734903</v>
       </c>
       <c r="N55">
-        <v>517.10342073188804</v>
+        <v>1116.8260825995701</v>
       </c>
       <c r="O55">
-        <v>4052.8599263465098</v>
+        <v>3462.7333609889401</v>
       </c>
       <c r="P55">
-        <v>4.4637484463664201</v>
+        <v>4.1017904465875796</v>
       </c>
       <c r="Q55">
-        <v>0.82610067501608198</v>
+        <v>0.82642470513797095</v>
       </c>
       <c r="R55">
-        <v>9802.1023444627299</v>
+        <v>10123.146146285</v>
       </c>
       <c r="S55">
-        <v>385.56670716715598</v>
+        <v>401.41510201118098</v>
       </c>
       <c r="T55">
         <v>5924.2000013589904</v>
       </c>
       <c r="U55">
-        <v>42.6940184532098</v>
+        <v>41.505610149722003</v>
       </c>
       <c r="V55">
         <v>450</v>
       </c>
       <c r="W55">
-        <v>1423.0656335404201</v>
+        <v>1418.3844080374799</v>
       </c>
       <c r="X55">
-        <v>0.71877405375463399</v>
+        <v>0.890481077549238</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -5362,7 +5362,7 @@
         <v>25</v>
       </c>
       <c r="J57">
-        <v>1.0647300377842801</v>
+        <v>0.95261217018803102</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5374,22 +5374,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>8.3431825176717194</v>
+        <v>15.441671789229</v>
       </c>
       <c r="O57">
-        <v>-1.2174217912468801</v>
+        <v>0.22224111957059001</v>
       </c>
       <c r="P57">
-        <v>0.89905612099239596</v>
+        <v>0.77494368521121304</v>
       </c>
       <c r="Q57">
-        <v>0.17396800995505701</v>
+        <v>0.156966254100014</v>
       </c>
       <c r="R57">
-        <v>11681.503133742601</v>
+        <v>11664.206630536801</v>
       </c>
       <c r="S57">
-        <v>400.54548516625198</v>
+        <v>400.43080664187102</v>
       </c>
       <c r="T57">
         <v>1098.2000006437299</v>
@@ -5401,10 +5401,10 @@
         <v>450</v>
       </c>
       <c r="W57">
-        <v>1092.0731033468701</v>
+        <v>1087.4830387699701</v>
       </c>
       <c r="X57">
-        <v>1.84540579051044</v>
+        <v>1.6899553399144001</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -5510,34 +5510,34 @@
         <v>27</v>
       </c>
       <c r="J59">
-        <v>9.9243135789013994</v>
+        <v>8.3092396913781208</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>0.18697599199645201</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.47151676946359</v>
       </c>
       <c r="N59">
-        <v>344.71440954044601</v>
+        <v>518.76292632678303</v>
       </c>
       <c r="O59">
-        <v>1035.9935513723401</v>
+        <v>864.09251980123702</v>
       </c>
       <c r="P59">
-        <v>11.640174911982101</v>
+        <v>10.9254133871862</v>
       </c>
       <c r="Q59">
-        <v>0.70687512420827903</v>
+        <v>0.69592279928498202</v>
       </c>
       <c r="R59">
-        <v>13822.540888699799</v>
+        <v>13953.6246355933</v>
       </c>
       <c r="S59">
-        <v>514.39236405194504</v>
+        <v>517.43073178626196</v>
       </c>
       <c r="T59">
         <v>2886.2999973297101</v>
@@ -5549,10 +5549,10 @@
         <v>450</v>
       </c>
       <c r="W59">
-        <v>1580.98404982784</v>
+        <v>1580.9049074720899</v>
       </c>
       <c r="X59">
-        <v>5.60341082802102</v>
+        <v>5.6075115256982402</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -5658,34 +5658,34 @@
         <v>29</v>
       </c>
       <c r="J61">
-        <v>25.872154421101499</v>
+        <v>15.1481071413547</v>
       </c>
       <c r="K61">
-        <v>25.308396741563001</v>
+        <v>35.1992912252122</v>
       </c>
       <c r="L61">
-        <v>46.604864206781102</v>
+        <v>62.681987525064301</v>
       </c>
       <c r="M61">
-        <v>109.06085801131201</v>
+        <v>139.733965586208</v>
       </c>
       <c r="N61">
-        <v>1754.0369053792101</v>
+        <v>2258.6856840555702</v>
       </c>
       <c r="O61">
-        <v>2681.2908082365898</v>
+        <v>2190.1108025796898</v>
       </c>
       <c r="P61">
-        <v>111.651857241174</v>
+        <v>93.609561676885406</v>
       </c>
       <c r="Q61">
-        <v>16.869664239456899</v>
+        <v>14.9655394196846</v>
       </c>
       <c r="R61">
-        <v>11271.195828657001</v>
+        <v>9958.3611041491495</v>
       </c>
       <c r="S61">
-        <v>436.31119467553799</v>
+        <v>398.99413283596198</v>
       </c>
       <c r="T61">
         <v>5924.2000013589904</v>
@@ -5697,10 +5697,10 @@
         <v>450</v>
       </c>
       <c r="W61">
-        <v>1565.2440614264699</v>
+        <v>1535.5086961882801</v>
       </c>
       <c r="X61">
-        <v>-1.8371344137725001</v>
+        <v>-2.19905358936537</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>25</v>
       </c>
       <c r="J63">
-        <v>164.95366652481999</v>
+        <v>158.01064669135701</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5818,22 +5818,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0.29138622908392797</v>
+        <v>10.5311938675899</v>
       </c>
       <c r="O63">
-        <v>239.04767137208799</v>
+        <v>229.474887829875</v>
       </c>
       <c r="P63">
-        <v>8.4053749243510403</v>
+        <v>8.5245596111904494</v>
       </c>
       <c r="Q63">
-        <v>1.2325976469202</v>
+        <v>1.2312938386943699</v>
       </c>
       <c r="R63">
-        <v>6391.7690009422404</v>
+        <v>6549.6689735494201</v>
       </c>
       <c r="S63">
-        <v>227.78337340580401</v>
+        <v>234.187442201501</v>
       </c>
       <c r="T63">
         <v>1098.2000006437299</v>
@@ -5845,10 +5845,10 @@
         <v>450</v>
       </c>
       <c r="W63">
-        <v>862.13401038243001</v>
+        <v>861.48187180636398</v>
       </c>
       <c r="X63">
-        <v>-0.50851318471981799</v>
+        <v>-0.57328209018883702</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
@@ -5954,7 +5954,7 @@
         <v>27</v>
       </c>
       <c r="J65">
-        <v>93.929139625571807</v>
+        <v>91.967837321738699</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5963,25 +5963,25 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.30010324623927798</v>
       </c>
       <c r="N65">
-        <v>23.631472652398699</v>
+        <v>101.181713573552</v>
       </c>
       <c r="O65">
-        <v>1592.3670745757099</v>
+        <v>1515.1482835854999</v>
       </c>
       <c r="P65">
-        <v>12.474149782795401</v>
+        <v>12.522772837141799</v>
       </c>
       <c r="Q65">
-        <v>2.1408830559923202</v>
+        <v>2.14318931158981</v>
       </c>
       <c r="R65">
-        <v>10589.7552436243</v>
+        <v>10612.2292637067</v>
       </c>
       <c r="S65">
-        <v>401.53382513771697</v>
+        <v>402.65573723927599</v>
       </c>
       <c r="T65">
         <v>2886.2999973297101</v>
@@ -5993,10 +5993,10 @@
         <v>450</v>
       </c>
       <c r="W65">
-        <v>1289.0533131939801</v>
+        <v>1288.7905688047999</v>
       </c>
       <c r="X65">
-        <v>5.4509061241800802</v>
+        <v>5.4670676470360702</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -6102,34 +6102,34 @@
         <v>29</v>
       </c>
       <c r="J67">
-        <v>188.87893787468599</v>
+        <v>184.51775889874801</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.23903802508560801</v>
       </c>
       <c r="L67">
-        <v>1.68205641067002</v>
+        <v>8.8212996863057</v>
       </c>
       <c r="M67">
-        <v>16.294723325330899</v>
+        <v>41.148933911409998</v>
       </c>
       <c r="N67">
-        <v>387.86208550643101</v>
+        <v>879.55062920871899</v>
       </c>
       <c r="O67">
-        <v>4213.3446786642598</v>
+        <v>3721.0429816894598</v>
       </c>
       <c r="P67">
-        <v>21.096042263566002</v>
+        <v>21.0220636852223</v>
       </c>
       <c r="Q67">
-        <v>3.1232082224050002</v>
+        <v>3.1152619361644902</v>
       </c>
       <c r="R67">
-        <v>8508.6496159438193</v>
+        <v>8530.9451856482992</v>
       </c>
       <c r="S67">
-        <v>311.62931882299699</v>
+        <v>312.50855767403601</v>
       </c>
       <c r="T67">
         <v>5924.2000013589904</v>
@@ -6141,10 +6141,10 @@
         <v>450</v>
       </c>
       <c r="W67">
-        <v>1343.28905016099</v>
+        <v>1342.0434511839301</v>
       </c>
       <c r="X67">
-        <v>2.9295474670314401</v>
+        <v>2.7570035182497601</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -6250,7 +6250,7 @@
         <v>25</v>
       </c>
       <c r="J69">
-        <v>-1.3019288612494999</v>
+        <v>-1.34286433705971</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6262,22 +6262,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0.113009711191651</v>
+        <v>8.6351806993879698</v>
       </c>
       <c r="O69">
-        <v>26.178832545235199</v>
+        <v>28.8735613327656</v>
       </c>
       <c r="P69">
-        <v>0.21693553896262199</v>
+        <v>0.19300301422667901</v>
       </c>
       <c r="Q69">
-        <v>7.14215195657458E-2</v>
+        <v>7.1053482580576505E-2</v>
       </c>
       <c r="R69">
-        <v>10576.0067358546</v>
+        <v>10584.9951552804</v>
       </c>
       <c r="S69">
-        <v>370.19622881163798</v>
+        <v>370.31195729409399</v>
       </c>
       <c r="T69">
         <v>1098.2000006437299</v>
@@ -6289,10 +6289,10 @@
         <v>450</v>
       </c>
       <c r="W69">
-        <v>1124.3771798576699</v>
+        <v>1118.7400623046101</v>
       </c>
       <c r="X69">
-        <v>-5.1026849442700604</v>
+        <v>-4.9677153166294401</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
         <v>27</v>
       </c>
       <c r="J71">
-        <v>9.3859860488029305</v>
+        <v>8.0646048912089494</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -6407,25 +6407,25 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.30010324623927798</v>
       </c>
       <c r="N71">
-        <v>153.88770483169401</v>
+        <v>413.55615862839198</v>
       </c>
       <c r="O71">
-        <v>1337.9004336138701</v>
+        <v>1094.48762629978</v>
       </c>
       <c r="P71">
-        <v>0.438269480105138</v>
+        <v>0.397998147316099</v>
       </c>
       <c r="Q71">
-        <v>0.16775605694249801</v>
+        <v>0.16559722236163499</v>
       </c>
       <c r="R71">
-        <v>11600.734049463699</v>
+        <v>11609.301260729</v>
       </c>
       <c r="S71">
-        <v>456.34728595640701</v>
+        <v>456.49162218573701</v>
       </c>
       <c r="T71">
         <v>2886.2999973297101</v>
@@ -6437,10 +6437,10 @@
         <v>450</v>
       </c>
       <c r="W71">
-        <v>1514.1911960090199</v>
+        <v>1517.64601253463</v>
       </c>
       <c r="X71">
-        <v>7.0100815070188798</v>
+        <v>6.4092945416512404</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -6546,34 +6546,34 @@
         <v>29</v>
       </c>
       <c r="J73">
-        <v>43.931449467155701</v>
+        <v>34.509987378732497</v>
       </c>
       <c r="K73">
-        <v>1.86762978492758</v>
+        <v>9.7044296189119894</v>
       </c>
       <c r="L73">
-        <v>3.5496861955975998</v>
+        <v>18.293879143199799</v>
       </c>
       <c r="M73">
-        <v>20.751273119795002</v>
+        <v>54.600248954159902</v>
       </c>
       <c r="N73">
-        <v>521.81056295630503</v>
+        <v>1102.9359517456201</v>
       </c>
       <c r="O73">
-        <v>4016.8528078398499</v>
+        <v>3442.1573564917599</v>
       </c>
       <c r="P73">
-        <v>4.2305596077260201</v>
+        <v>3.9313742441417401</v>
       </c>
       <c r="Q73">
-        <v>0.83159552513534696</v>
+        <v>0.83174850946735102</v>
       </c>
       <c r="R73">
-        <v>10092.9422843061</v>
+        <v>10287.695292755399</v>
       </c>
       <c r="S73">
-        <v>400.97485348392598</v>
+        <v>410.70826936735199</v>
       </c>
       <c r="T73">
         <v>5924.2000013589904</v>
@@ -6585,10 +6585,10 @@
         <v>450</v>
       </c>
       <c r="W73">
-        <v>1411.1601523647601</v>
+        <v>1413.80439863879</v>
       </c>
       <c r="X73">
-        <v>0.87001036290954903</v>
+        <v>1.00643087954285</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -6694,49 +6694,49 @@
         <v>25</v>
       </c>
       <c r="J75">
-        <v>7.2690058761677001</v>
+        <v>6.38187039888511</v>
       </c>
       <c r="K75">
-        <v>5.4667850696892604</v>
+        <v>8.9733107443605</v>
       </c>
       <c r="L75">
-        <v>6.94180277717106</v>
+        <v>16.154116192442402</v>
       </c>
       <c r="M75">
-        <v>8.3586492645592205</v>
+        <v>23.365732058519502</v>
       </c>
       <c r="N75">
-        <v>66.151402419656506</v>
+        <v>151.44776321181101</v>
       </c>
       <c r="O75">
-        <v>254.75023942886901</v>
+        <v>208.24648249561099</v>
       </c>
       <c r="P75">
-        <v>42.839587565159498</v>
+        <v>29.1847112692381</v>
       </c>
       <c r="Q75">
-        <v>5.95871230921367</v>
+        <v>3.3528177304444098</v>
       </c>
       <c r="R75">
-        <v>13751.0174982514</v>
+        <v>14033.644245576999</v>
       </c>
       <c r="S75">
-        <v>467.07599062944399</v>
+        <v>478.99989930395702</v>
       </c>
       <c r="T75">
         <v>1019.39999568462</v>
       </c>
       <c r="U75">
-        <v>1075.3645056601899</v>
+        <v>1138.4217813197199</v>
       </c>
       <c r="V75">
         <v>450</v>
       </c>
       <c r="W75">
-        <v>1795.8835486615001</v>
+        <v>1796.3611865554601</v>
       </c>
       <c r="X75">
-        <v>10.0259340684867</v>
+        <v>9.6673408015342304</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -6842,49 +6842,49 @@
         <v>27</v>
       </c>
       <c r="J77">
-        <v>10.1296632123856</v>
+        <v>8.6819455575235303</v>
       </c>
       <c r="K77">
-        <v>2.1831881033703402</v>
+        <v>5.5467766758095802</v>
       </c>
       <c r="L77">
-        <v>4.0139348134303896</v>
+        <v>15.2813024383598</v>
       </c>
       <c r="M77">
-        <v>4.9183647281299203</v>
+        <v>17.808130125637401</v>
       </c>
       <c r="N77">
-        <v>225.92784806152099</v>
+        <v>406.36768349981298</v>
       </c>
       <c r="O77">
-        <v>1056.13889036468</v>
+        <v>920.84674666553406</v>
       </c>
       <c r="P77">
-        <v>40.785807276640298</v>
+        <v>29.383650271894901</v>
       </c>
       <c r="Q77">
-        <v>5.4964827383980097</v>
+        <v>3.4870575035953699</v>
       </c>
       <c r="R77">
-        <v>13502.4949451672</v>
+        <v>13962.8039561517</v>
       </c>
       <c r="S77">
-        <v>497.92048756040703</v>
+        <v>512.90933201043902</v>
       </c>
       <c r="T77">
         <v>2373.20000433922</v>
       </c>
       <c r="U77">
-        <v>622.07133406965602</v>
+        <v>666.74571175692097</v>
       </c>
       <c r="V77">
         <v>450</v>
       </c>
       <c r="W77">
-        <v>1724.7826355115101</v>
+        <v>1728.6858263312599</v>
       </c>
       <c r="X77">
-        <v>5.3438030473301197</v>
+        <v>5.6291414991202897</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
@@ -6990,49 +6990,49 @@
         <v>29</v>
       </c>
       <c r="J79">
-        <v>31.4484827363706</v>
+        <v>22.209311463284202</v>
       </c>
       <c r="K79">
-        <v>45.753614016066997</v>
+        <v>60.009607633239497</v>
       </c>
       <c r="L79">
-        <v>46.815689960966502</v>
+        <v>65.053990556227504</v>
       </c>
       <c r="M79">
-        <v>109.11859500526501</v>
+        <v>141.75975526588999</v>
       </c>
       <c r="N79">
-        <v>1440.45852025983</v>
+        <v>1866.0372184937701</v>
       </c>
       <c r="O79">
-        <v>2888.8797293371499</v>
+        <v>2463.7490274103602</v>
       </c>
       <c r="P79">
-        <v>98.722750603724506</v>
+        <v>93.406299190272406</v>
       </c>
       <c r="Q79">
-        <v>13.194471414856601</v>
+        <v>13.3667446403194</v>
       </c>
       <c r="R79">
-        <v>9408.4357045836896</v>
+        <v>10398.345425174701</v>
       </c>
       <c r="S79">
-        <v>376.86433983238101</v>
+        <v>411.24361226166701</v>
       </c>
       <c r="T79">
         <v>5452.9999903440503</v>
       </c>
       <c r="U79">
-        <v>143.19495022924801</v>
+        <v>136.33990040101699</v>
       </c>
       <c r="V79">
         <v>450</v>
       </c>
       <c r="W79">
-        <v>1351.15183848282</v>
+        <v>1351.59461939271</v>
       </c>
       <c r="X79">
-        <v>1.34435978983467</v>
+        <v>0.68550530821872602</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
@@ -7138,49 +7138,49 @@
         <v>25</v>
       </c>
       <c r="J81">
-        <v>140.54545270459101</v>
+        <v>138.59991103322099</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>0.81734959413212005</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>0.81734959413212005</v>
       </c>
       <c r="M81">
-        <v>0.214086827876489</v>
+        <v>4.7684060278784699</v>
       </c>
       <c r="N81">
-        <v>6.1743378370069397</v>
+        <v>24.6291746340241</v>
       </c>
       <c r="O81">
-        <v>369.31994167855203</v>
+        <v>351.16989562013703</v>
       </c>
       <c r="P81">
-        <v>14.364945038550699</v>
+        <v>14.4362605273562</v>
       </c>
       <c r="Q81">
-        <v>2.37766214985021</v>
+        <v>2.4557753300958298</v>
       </c>
       <c r="R81">
-        <v>10507.1107315349</v>
+        <v>10513.433420408501</v>
       </c>
       <c r="S81">
-        <v>378.59774856710698</v>
+        <v>380.12837310949402</v>
       </c>
       <c r="T81">
         <v>1019.39999568462</v>
       </c>
       <c r="U81">
-        <v>931.26823357034903</v>
+        <v>932.45930120381604</v>
       </c>
       <c r="V81">
         <v>450</v>
       </c>
       <c r="W81">
-        <v>1593.3573444992501</v>
+        <v>1594.0471453944599</v>
       </c>
       <c r="X81">
-        <v>2.0997022680083601</v>
+        <v>1.9459920610002499</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -7286,7 +7286,7 @@
         <v>27</v>
       </c>
       <c r="J83">
-        <v>34.120802769217299</v>
+        <v>33.896624069608002</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -7298,37 +7298,37 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>8.8062094534669395</v>
+        <v>53.077227495761797</v>
       </c>
       <c r="O83">
-        <v>1378.2786464793301</v>
+        <v>1334.05475439356</v>
       </c>
       <c r="P83">
-        <v>19.966411535700001</v>
+        <v>19.968046584200501</v>
       </c>
       <c r="Q83">
-        <v>3.86867947118819</v>
+        <v>3.8690241768896598</v>
       </c>
       <c r="R83">
-        <v>16851.393708832002</v>
+        <v>16859.608930472099</v>
       </c>
       <c r="S83">
-        <v>627.09160567256095</v>
+        <v>627.34734096082502</v>
       </c>
       <c r="T83">
         <v>2373.20000433922</v>
       </c>
       <c r="U83">
-        <v>613.65036582451398</v>
+        <v>613.74673204099395</v>
       </c>
       <c r="V83">
         <v>450</v>
       </c>
       <c r="W83">
-        <v>1608.1664313973299</v>
+        <v>1608.2209887294</v>
       </c>
       <c r="X83">
-        <v>5.38925214401426</v>
+        <v>5.3731598858299296</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -7434,49 +7434,49 @@
         <v>29</v>
       </c>
       <c r="J85">
-        <v>272.99598127993102</v>
+        <v>249.969694017145</v>
       </c>
       <c r="K85">
-        <v>10.8482113967383</v>
+        <v>31.895310254022998</v>
       </c>
       <c r="L85">
-        <v>10.8482113967383</v>
+        <v>31.895310254022998</v>
       </c>
       <c r="M85">
-        <v>23.369449720555799</v>
+        <v>71.551931693632994</v>
       </c>
       <c r="N85">
-        <v>223.414053520333</v>
+        <v>646.10789142329895</v>
       </c>
       <c r="O85">
-        <v>4326.3984647200796</v>
+        <v>3901.5941625657101</v>
       </c>
       <c r="P85">
-        <v>18.706623400717</v>
+        <v>20.192815578753599</v>
       </c>
       <c r="Q85">
-        <v>2.5369535822630702</v>
+        <v>2.73126252481718</v>
       </c>
       <c r="R85">
-        <v>7816.5290941066896</v>
+        <v>7892.0798252069899</v>
       </c>
       <c r="S85">
-        <v>265.31897611996101</v>
+        <v>275.94560148486698</v>
       </c>
       <c r="T85">
         <v>5452.9999903440503</v>
       </c>
       <c r="U85">
-        <v>307.95653892908598</v>
+        <v>309.97167117043102</v>
       </c>
       <c r="V85">
         <v>450</v>
       </c>
       <c r="W85">
-        <v>1281.48053296377</v>
+        <v>1285.6176792531201</v>
       </c>
       <c r="X85">
-        <v>3.4750328544458799</v>
+        <v>3.4967700551007801</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -7582,49 +7582,49 @@
         <v>25</v>
       </c>
       <c r="J87">
-        <v>53.471378131962801</v>
+        <v>51.098171090974503</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.81734959413212005</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>0.81734959413212005</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>5.83081642465726</v>
       </c>
       <c r="N87">
-        <v>6.94499237960376</v>
+        <v>29.594818298121702</v>
       </c>
       <c r="O87">
-        <v>273.10667065046101</v>
+        <v>261.10602250188498</v>
       </c>
       <c r="P87">
-        <v>1.7451372265715099</v>
+        <v>1.5876824827934599</v>
       </c>
       <c r="Q87">
-        <v>0.50496300438739306</v>
+        <v>0.48250901438495503</v>
       </c>
       <c r="R87">
-        <v>9683.3116519503001</v>
+        <v>9763.6697421037607</v>
       </c>
       <c r="S87">
-        <v>372.946928054144</v>
+        <v>374.54486239143603</v>
       </c>
       <c r="T87">
         <v>1019.39999568462</v>
       </c>
       <c r="U87">
-        <v>860.50159090412399</v>
+        <v>872.13550535095601</v>
       </c>
       <c r="V87">
         <v>450</v>
       </c>
       <c r="W87">
-        <v>1739.6756122934</v>
+        <v>1727.35966845088</v>
       </c>
       <c r="X87">
-        <v>18.603227713031401</v>
+        <v>19.747222822022501</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
@@ -7730,49 +7730,49 @@
         <v>27</v>
       </c>
       <c r="J89">
-        <v>14.434922505507201</v>
+        <v>14.4039982436959</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.188295733395242</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>0.188295733395242</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>0.188295733395242</v>
       </c>
       <c r="N89">
-        <v>8.25266418717991</v>
+        <v>60.167801148555199</v>
       </c>
       <c r="O89">
-        <v>1274.5546523745199</v>
+        <v>1221.48904683619</v>
       </c>
       <c r="P89">
-        <v>1.0678206033850799</v>
+        <v>1.06121448136473</v>
       </c>
       <c r="Q89">
-        <v>0.38215971224221201</v>
+        <v>0.38205148040730702</v>
       </c>
       <c r="R89">
-        <v>13763.839219653</v>
+        <v>13739.1804315721</v>
       </c>
       <c r="S89">
-        <v>538.69542913573798</v>
+        <v>537.73904668958005</v>
       </c>
       <c r="T89">
         <v>2373.20000433922</v>
       </c>
       <c r="U89">
-        <v>515.71666504857899</v>
+        <v>513.10323636684404</v>
       </c>
       <c r="V89">
         <v>450</v>
       </c>
       <c r="W89">
-        <v>1672.5187189076901</v>
+        <v>1672.54047527736</v>
       </c>
       <c r="X89">
-        <v>2.9233615553374301</v>
+        <v>2.6960825595163298</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -7878,49 +7878,49 @@
         <v>29</v>
       </c>
       <c r="J91">
-        <v>117.92780888777</v>
+        <v>76.110097490234196</v>
       </c>
       <c r="K91">
-        <v>20.615746856086901</v>
+        <v>46.038252181858198</v>
       </c>
       <c r="L91">
-        <v>20.615746856086901</v>
+        <v>46.038252181858198</v>
       </c>
       <c r="M91">
-        <v>40.576879958492299</v>
+        <v>97.234498640430104</v>
       </c>
       <c r="N91">
-        <v>241.99263480869001</v>
+        <v>695.714017908193</v>
       </c>
       <c r="O91">
-        <v>4238.3553006503798</v>
+        <v>3736.7084265369699</v>
       </c>
       <c r="P91">
-        <v>8.9015618977712805</v>
+        <v>7.5173933360710796</v>
       </c>
       <c r="Q91">
-        <v>0.95674389655828596</v>
+        <v>1.0046916198587099</v>
       </c>
       <c r="R91">
-        <v>10705.033300303099</v>
+        <v>11451.308802044799</v>
       </c>
       <c r="S91">
-        <v>381.92584296586102</v>
+        <v>424.26365537868702</v>
       </c>
       <c r="T91">
         <v>5452.9999903440503</v>
       </c>
       <c r="U91">
-        <v>139.730059772647</v>
+        <v>125.232567597824</v>
       </c>
       <c r="V91">
         <v>450</v>
       </c>
       <c r="W91">
-        <v>1290.3197571691701</v>
+        <v>1302.94568250977</v>
       </c>
       <c r="X91">
-        <v>-0.39696779070953903</v>
+        <v>-0.42839245675035098</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -8026,7 +8026,7 @@
         <v>25</v>
       </c>
       <c r="J93">
-        <v>1.8241488286337499</v>
+        <v>1.6590764440990899</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -8038,22 +8038,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>14.5111873380083</v>
+        <v>26.8272236179779</v>
       </c>
       <c r="O93">
-        <v>33.992730028046502</v>
+        <v>17.311275813618298</v>
       </c>
       <c r="P93">
-        <v>30.367698776298699</v>
+        <v>23.575232168595701</v>
       </c>
       <c r="Q93">
-        <v>2.74406434470604</v>
+        <v>2.45506377064725</v>
       </c>
       <c r="R93">
-        <v>10303.924914778499</v>
+        <v>10250.023276479</v>
       </c>
       <c r="S93">
-        <v>367.22748549434101</v>
+        <v>369.42376972357101</v>
       </c>
       <c r="T93">
         <v>1019.39999568462</v>
@@ -8065,10 +8065,10 @@
         <v>450</v>
       </c>
       <c r="W93">
-        <v>1076.6035077197901</v>
+        <v>1065.8952416617101</v>
       </c>
       <c r="X93">
-        <v>-4.1357730592807201E-2</v>
+        <v>-6.9803745375926596E-2</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -8174,7 +8174,7 @@
         <v>27</v>
       </c>
       <c r="J95">
-        <v>74.961896464937894</v>
+        <v>61.893001851179797</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -8186,22 +8186,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>186.378037987543</v>
+        <v>303.93074738584198</v>
       </c>
       <c r="O95">
-        <v>818.75781914076504</v>
+        <v>699.20466683974996</v>
       </c>
       <c r="P95">
-        <v>91.610649715482893</v>
+        <v>88.555669481147802</v>
       </c>
       <c r="Q95">
-        <v>6.3854516777007904</v>
+        <v>6.0739801624331298</v>
       </c>
       <c r="R95">
-        <v>11394.830745728201</v>
+        <v>11745.0740488992</v>
       </c>
       <c r="S95">
-        <v>358.21442042185203</v>
+        <v>370.22448259196102</v>
       </c>
       <c r="T95">
         <v>2373.20000433922</v>
@@ -8213,10 +8213,10 @@
         <v>450</v>
       </c>
       <c r="W95">
-        <v>1393.5890198985401</v>
+        <v>1393.4903358921799</v>
       </c>
       <c r="X95">
-        <v>6.66293346687356</v>
+        <v>7.9283982284473504</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -8322,34 +8322,34 @@
         <v>29</v>
       </c>
       <c r="J97">
-        <v>35.0412643919963</v>
+        <v>29.021879848740301</v>
       </c>
       <c r="K97">
-        <v>45.753614016066997</v>
+        <v>60.009607633239497</v>
       </c>
       <c r="L97">
-        <v>45.753614016066997</v>
+        <v>60.009607633239497</v>
       </c>
       <c r="M97">
-        <v>85.082342715028105</v>
+        <v>117.88347891638399</v>
       </c>
       <c r="N97">
-        <v>1442.98566132007</v>
+        <v>1796.8252606557801</v>
       </c>
       <c r="O97">
-        <v>2777.2031189723798</v>
+        <v>2426.1698500805801</v>
       </c>
       <c r="P97">
-        <v>104.792261595212</v>
+        <v>97.001416321256599</v>
       </c>
       <c r="Q97">
-        <v>14.0522375241872</v>
+        <v>13.8094820198419</v>
       </c>
       <c r="R97">
-        <v>9680.0670899330598</v>
+        <v>9938.3745503025293</v>
       </c>
       <c r="S97">
-        <v>384.62235637658699</v>
+        <v>387.66154806543801</v>
       </c>
       <c r="T97">
         <v>5452.9999903440503</v>
@@ -8361,10 +8361,10 @@
         <v>450</v>
       </c>
       <c r="W97">
-        <v>1317.3441269003999</v>
+        <v>1321.99655112597</v>
       </c>
       <c r="X97">
-        <v>1.43336454804297</v>
+        <v>0.76027518150965401</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
@@ -8470,7 +8470,7 @@
         <v>25</v>
       </c>
       <c r="J99">
-        <v>292.88388841844602</v>
+        <v>291.29632083617298</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -8482,22 +8482,22 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>5.4166695055899998</v>
+        <v>21.328479237806899</v>
       </c>
       <c r="O99">
-        <v>303.024104717699</v>
+        <v>287.106088009953</v>
       </c>
       <c r="P99">
-        <v>18.785232519199099</v>
+        <v>19.5708696887564</v>
       </c>
       <c r="Q99">
-        <v>2.7284355427144602</v>
+        <v>2.7622214177795201</v>
       </c>
       <c r="R99">
-        <v>2933.09604969772</v>
+        <v>2953.6082978607501</v>
       </c>
       <c r="S99">
-        <v>92.8323878953329</v>
+        <v>93.368823088182694</v>
       </c>
       <c r="T99">
         <v>1019.39999568462</v>
@@ -8509,10 +8509,10 @@
         <v>450</v>
       </c>
       <c r="W99">
-        <v>752.35376145696796</v>
+        <v>752.25994141653496</v>
       </c>
       <c r="X99">
-        <v>-2.7366460352836</v>
+        <v>-2.78249616732885</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
@@ -8618,7 +8618,7 @@
         <v>27</v>
       </c>
       <c r="J101">
-        <v>280.80033067437699</v>
+        <v>280.05373550702097</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8630,22 +8630,22 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>12.141413815961499</v>
+        <v>72.166417948209997</v>
       </c>
       <c r="O101">
-        <v>1266.7249833836299</v>
+        <v>1206.3969397543899</v>
       </c>
       <c r="P101">
-        <v>21.889773162395201</v>
+        <v>21.854635326169301</v>
       </c>
       <c r="Q101">
-        <v>2.5708515900158102</v>
+        <v>2.5530449327025702</v>
       </c>
       <c r="R101">
-        <v>6216.5165852476703</v>
+        <v>6237.9067789526398</v>
       </c>
       <c r="S101">
-        <v>199.00644328768701</v>
+        <v>199.73122983157299</v>
       </c>
       <c r="T101">
         <v>2373.20000433922</v>
@@ -8657,10 +8657,10 @@
         <v>450</v>
       </c>
       <c r="W101">
-        <v>1098.1288613659599</v>
+        <v>1098.42470330318</v>
       </c>
       <c r="X101">
-        <v>5.2217712514677297</v>
+        <v>5.1919463346571098</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
@@ -8766,34 +8766,34 @@
         <v>29</v>
       </c>
       <c r="J103">
-        <v>308.09447412815501</v>
+        <v>303.07067968668701</v>
       </c>
       <c r="K103">
-        <v>0.42962940069664801</v>
+        <v>10.1623608122551</v>
       </c>
       <c r="L103">
-        <v>0.42962940069664801</v>
+        <v>10.1623608122551</v>
       </c>
       <c r="M103">
-        <v>4.3420076770266904</v>
+        <v>27.065822614727001</v>
       </c>
       <c r="N103">
-        <v>200.541397204991</v>
+        <v>597.55667028158598</v>
       </c>
       <c r="O103">
-        <v>4239.2709739551901</v>
+        <v>3841.6737041066799</v>
       </c>
       <c r="P103">
-        <v>19.715974429583898</v>
+        <v>20.9293043964968</v>
       </c>
       <c r="Q103">
-        <v>2.6064167537880798</v>
+        <v>2.7784770390103302</v>
       </c>
       <c r="R103">
-        <v>4521.8941249514801</v>
+        <v>4588.8290362445096</v>
       </c>
       <c r="S103">
-        <v>148.806703937142</v>
+        <v>150.495434337592</v>
       </c>
       <c r="T103">
         <v>5452.9999903440503</v>
@@ -8805,10 +8805,10 @@
         <v>450</v>
       </c>
       <c r="W103">
-        <v>1091.9889875174599</v>
+        <v>1092.56260663014</v>
       </c>
       <c r="X103">
-        <v>2.31464997420469</v>
+        <v>2.1235146295838998</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -8914,7 +8914,7 @@
         <v>25</v>
       </c>
       <c r="J105">
-        <v>87.5468373230959</v>
+        <v>73.062895865048503</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>1.57675155331506</v>
+        <v>11.3870748278745</v>
       </c>
       <c r="O105">
-        <v>192.16266586941501</v>
+        <v>182.863695304207</v>
       </c>
       <c r="P105">
-        <v>2.2003523525817101</v>
+        <v>2.0253413384663399</v>
       </c>
       <c r="Q105">
-        <v>0.22765575633222601</v>
+        <v>0.227823049382813</v>
       </c>
       <c r="R105">
-        <v>8153.1688197454396</v>
+        <v>8495.0679931209397</v>
       </c>
       <c r="S105">
-        <v>267.936572803204</v>
+        <v>282.652177643963</v>
       </c>
       <c r="T105">
         <v>1019.39999568462</v>
@@ -8953,10 +8953,10 @@
         <v>450</v>
       </c>
       <c r="W105">
-        <v>1007.35208581197</v>
+        <v>1006.70126822406</v>
       </c>
       <c r="X105">
-        <v>81.343148184078601</v>
+        <v>70.168878013900695</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -9062,7 +9062,7 @@
         <v>27</v>
       </c>
       <c r="J107">
-        <v>145.69278346732901</v>
+        <v>161.70687873498801</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -9074,22 +9074,22 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>9.7234334457160294</v>
+        <v>64.608897684673806</v>
       </c>
       <c r="O107">
-        <v>1114.5316968438101</v>
+        <v>1048.0323803927799</v>
       </c>
       <c r="P107">
-        <v>2.4781020959762401</v>
+        <v>2.7000345369155001</v>
       </c>
       <c r="Q107">
-        <v>0.26068102150086198</v>
+        <v>0.30542770850309098</v>
       </c>
       <c r="R107">
-        <v>10565.6403646204</v>
+        <v>9358.9752496528308</v>
       </c>
       <c r="S107">
-        <v>366.92831445596198</v>
+        <v>318.648951416253</v>
       </c>
       <c r="T107">
         <v>2373.20000433922</v>
@@ -9101,10 +9101,10 @@
         <v>450</v>
       </c>
       <c r="W107">
-        <v>1316.1144596834299</v>
+        <v>1334.5214933694899</v>
       </c>
       <c r="X107">
-        <v>2.3578719974501801</v>
+        <v>3.4174278249677599</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
@@ -9210,34 +9210,34 @@
         <v>29</v>
       </c>
       <c r="J109">
-        <v>113.883010857667</v>
+        <v>82.185129622224693</v>
       </c>
       <c r="K109">
-        <v>3.0687760708606402</v>
+        <v>18.687623945467401</v>
       </c>
       <c r="L109">
-        <v>3.0687760708606402</v>
+        <v>18.687623945467401</v>
       </c>
       <c r="M109">
-        <v>7.0773089639028504</v>
+        <v>35.595783278334302</v>
       </c>
       <c r="N109">
-        <v>201.29408916582099</v>
+        <v>617.49487597012399</v>
       </c>
       <c r="O109">
-        <v>4196.2134467291098</v>
+        <v>3756.84126674461</v>
       </c>
       <c r="P109">
-        <v>9.1022667547581495</v>
+        <v>7.8985452093522497</v>
       </c>
       <c r="Q109">
-        <v>0.99078024929239805</v>
+        <v>1.0360579837834001</v>
       </c>
       <c r="R109">
-        <v>11213.639794562099</v>
+        <v>10140.110174437001</v>
       </c>
       <c r="S109">
-        <v>397.654366096427</v>
+        <v>371.64459057866901</v>
       </c>
       <c r="T109">
         <v>5452.9999903440503</v>
@@ -9249,10 +9249,10 @@
         <v>450</v>
       </c>
       <c r="W109">
-        <v>1259.2232902286401</v>
+        <v>1259.35754455043</v>
       </c>
       <c r="X109">
-        <v>-0.568251085913276</v>
+        <v>-0.64272092242524703</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -9358,49 +9358,49 @@
         <v>25</v>
       </c>
       <c r="J111">
-        <v>1.2575229115350699</v>
+        <v>0.72313503533295898</v>
       </c>
       <c r="K111">
-        <v>0.95667077648198295</v>
+        <v>3.0651394554856699</v>
       </c>
       <c r="L111">
-        <v>1.53160518361441</v>
+        <v>4.7814215237819901</v>
       </c>
       <c r="M111">
-        <v>1.87023846869384</v>
+        <v>6.5919238295985796</v>
       </c>
       <c r="N111">
-        <v>67.751221017630797</v>
+        <v>138.45979104717301</v>
       </c>
       <c r="O111">
-        <v>180.979528808975</v>
+        <v>130.69010142212599</v>
       </c>
       <c r="P111">
-        <v>87.801433425579305</v>
+        <v>83.187637960634703</v>
       </c>
       <c r="Q111">
-        <v>14.5758230289537</v>
+        <v>14.4863614732184</v>
       </c>
       <c r="R111">
-        <v>12579.0394921936</v>
+        <v>12739.4924219575</v>
       </c>
       <c r="S111">
-        <v>399.89697933706498</v>
+        <v>405.67204585098</v>
       </c>
       <c r="T111">
         <v>1062.3999967575101</v>
       </c>
       <c r="U111">
-        <v>798.00811530346903</v>
+        <v>813.58410663196105</v>
       </c>
       <c r="V111">
         <v>450</v>
       </c>
       <c r="W111">
-        <v>1581.97028651804</v>
+        <v>1579.6787855320299</v>
       </c>
       <c r="X111">
-        <v>0.33635293677903799</v>
+        <v>-1.0147280546295399E-2</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
@@ -9506,49 +9506,49 @@
         <v>27</v>
       </c>
       <c r="J113">
-        <v>49.086652195607897</v>
+        <v>36.048746365286398</v>
       </c>
       <c r="K113">
-        <v>4.4214884179000702</v>
+        <v>9.1274980398669001</v>
       </c>
       <c r="L113">
-        <v>16.1210129022598</v>
+        <v>29.4417000740094</v>
       </c>
       <c r="M113">
-        <v>50.517675516518104</v>
+        <v>76.164127574045906</v>
       </c>
       <c r="N113">
-        <v>305.00002938878902</v>
+        <v>499.11859634417101</v>
       </c>
       <c r="O113">
-        <v>1292.0157778570599</v>
+        <v>1100.39904075758</v>
       </c>
       <c r="P113">
-        <v>210.60564066279301</v>
+        <v>209.63412380159201</v>
       </c>
       <c r="Q113">
-        <v>26.712482424941001</v>
+        <v>27.330269356548101</v>
       </c>
       <c r="R113">
-        <v>18434.2740246299</v>
+        <v>18974.469248134999</v>
       </c>
       <c r="S113">
-        <v>540.85635561325296</v>
+        <v>556.64522567060601</v>
       </c>
       <c r="T113">
         <v>2980.0999923944501</v>
       </c>
       <c r="U113">
-        <v>415.22861372919903</v>
+        <v>421.32876286854201</v>
       </c>
       <c r="V113">
         <v>450</v>
       </c>
       <c r="W113">
-        <v>1754.23692480572</v>
+        <v>1758.70192710894</v>
       </c>
       <c r="X113">
-        <v>1.61636935722604</v>
+        <v>1.86891500101853</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -9654,49 +9654,49 @@
         <v>29</v>
       </c>
       <c r="J115">
-        <v>224.51201986511299</v>
+        <v>185.85155138157501</v>
       </c>
       <c r="K115">
-        <v>90.341453620722703</v>
+        <v>117.84195465355801</v>
       </c>
       <c r="L115">
-        <v>134.380038172311</v>
+        <v>183.047055684707</v>
       </c>
       <c r="M115">
-        <v>175.51999267985099</v>
+        <v>240.58283403051701</v>
       </c>
       <c r="N115">
-        <v>2546.4407534922302</v>
+        <v>3035.5898202881199</v>
       </c>
       <c r="O115">
-        <v>3148.8249069970302</v>
+        <v>2679.08046860168</v>
       </c>
       <c r="P115">
-        <v>198.13837529301901</v>
+        <v>213.839662722529</v>
       </c>
       <c r="Q115">
-        <v>20.146140167984701</v>
+        <v>22.258285146166799</v>
       </c>
       <c r="R115">
-        <v>7795.3186148832601</v>
+        <v>8454.9409393230308</v>
       </c>
       <c r="S115">
-        <v>218.76530699539401</v>
+        <v>238.59930578407401</v>
       </c>
       <c r="T115">
         <v>6999.00001418591</v>
       </c>
       <c r="U115">
-        <v>142.797771526986</v>
+        <v>171.49000109473599</v>
       </c>
       <c r="V115">
         <v>450</v>
       </c>
       <c r="W115">
-        <v>1403.9560042623</v>
+        <v>1411.9744252088401</v>
       </c>
       <c r="X115">
-        <v>2.7470446681952501</v>
+        <v>2.8984757926445401</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -9802,7 +9802,7 @@
         <v>25</v>
       </c>
       <c r="J117">
-        <v>202.87143897776099</v>
+        <v>199.18487222331501</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -9814,37 +9814,37 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>0.11184079742233299</v>
+        <v>12.3048551192368</v>
       </c>
       <c r="O117">
-        <v>376.05168224813298</v>
+        <v>363.63208469457999</v>
       </c>
       <c r="P117">
-        <v>19.335039218805601</v>
+        <v>19.141939124959901</v>
       </c>
       <c r="Q117">
-        <v>3.2099506437387899</v>
+        <v>3.2039992186042601</v>
       </c>
       <c r="R117">
-        <v>9964.6172191995593</v>
+        <v>9997.3229974175101</v>
       </c>
       <c r="S117">
-        <v>332.52487410442899</v>
+        <v>334.12076881840801</v>
       </c>
       <c r="T117">
         <v>1062.3999967575101</v>
       </c>
       <c r="U117">
-        <v>721.592908593993</v>
+        <v>723.42482111865797</v>
       </c>
       <c r="V117">
         <v>450</v>
       </c>
       <c r="W117">
-        <v>1378.5723067317599</v>
+        <v>1380.72480758341</v>
       </c>
       <c r="X117">
-        <v>0.57729495018140098</v>
+        <v>0.58833774062810795</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -9950,49 +9950,49 @@
         <v>27</v>
       </c>
       <c r="J119">
-        <v>385.06462305695902</v>
+        <v>384.30443711689003</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>0.16967311552605499</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>2.4206085898300702</v>
       </c>
       <c r="M119">
-        <v>3.93527902634274</v>
+        <v>17.681767132369199</v>
       </c>
       <c r="N119">
-        <v>18.142621168552001</v>
+        <v>102.87548248285501</v>
       </c>
       <c r="O119">
-        <v>1854.99700312257</v>
+        <v>1770.04734190722</v>
       </c>
       <c r="P119">
-        <v>33.102803584348997</v>
+        <v>33.243207335552803</v>
       </c>
       <c r="Q119">
-        <v>5.28257704772422</v>
+        <v>5.2911546445230799</v>
       </c>
       <c r="R119">
-        <v>12586.423543848199</v>
+        <v>12637.7055480995</v>
       </c>
       <c r="S119">
-        <v>387.01712137577999</v>
+        <v>388.65733373604002</v>
       </c>
       <c r="T119">
         <v>2980.0999923944501</v>
       </c>
       <c r="U119">
-        <v>455.19997852555002</v>
+        <v>456.26426574303701</v>
       </c>
       <c r="V119">
         <v>450</v>
       </c>
       <c r="W119">
-        <v>1535.62139569192</v>
+        <v>1537.1149430748401</v>
       </c>
       <c r="X119">
-        <v>1.42317935873629</v>
+        <v>1.4226082685463799</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -10098,49 +10098,49 @@
         <v>29</v>
       </c>
       <c r="J121">
-        <v>437.16994533768099</v>
+        <v>436.10858963710001</v>
       </c>
       <c r="K121">
-        <v>12.3960865962193</v>
+        <v>37.485579706676702</v>
       </c>
       <c r="L121">
-        <v>14.9535503605874</v>
+        <v>51.5860857176162</v>
       </c>
       <c r="M121">
-        <v>20.514394078880599</v>
+        <v>68.480940701530102</v>
       </c>
       <c r="N121">
-        <v>556.89102573366301</v>
+        <v>1302.4180616711801</v>
       </c>
       <c r="O121">
-        <v>5368.0877895834601</v>
+        <v>4629.7702034529202</v>
       </c>
       <c r="P121">
-        <v>22.196000604577801</v>
+        <v>23.068252540080699</v>
       </c>
       <c r="Q121">
-        <v>2.9349427363196199</v>
+        <v>3.0754485166778398</v>
       </c>
       <c r="R121">
-        <v>7655.8352594654898</v>
+        <v>7687.2356270914497</v>
       </c>
       <c r="S121">
-        <v>251.28829646625101</v>
+        <v>252.24263357370299</v>
       </c>
       <c r="T121">
         <v>6999.00001418591</v>
       </c>
       <c r="U121">
-        <v>236.71833769718401</v>
+        <v>244.41002598217099</v>
       </c>
       <c r="V121">
         <v>450</v>
       </c>
       <c r="W121">
-        <v>1252.3245039947701</v>
+        <v>1252.80102215745</v>
       </c>
       <c r="X121">
-        <v>0.34702954665492503</v>
+        <v>0.35448851104296702</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -10246,7 +10246,7 @@
         <v>25</v>
       </c>
       <c r="J123">
-        <v>4.8353534403196301</v>
+        <v>4.4876828607495503</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -10258,37 +10258,37 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>0.41300289480464403</v>
+        <v>16.218541454234401</v>
       </c>
       <c r="O123">
-        <v>243.44543382522599</v>
+        <v>231.001900251015</v>
       </c>
       <c r="P123">
-        <v>2.2657991079154902</v>
+        <v>2.22479402700825</v>
       </c>
       <c r="Q123">
-        <v>0.56466287788604597</v>
+        <v>0.56405874368956499</v>
       </c>
       <c r="R123">
-        <v>11559.4162789978</v>
+        <v>11556.483839583199</v>
       </c>
       <c r="S123">
-        <v>402.66163069370299</v>
+        <v>402.638664343416</v>
       </c>
       <c r="T123">
         <v>1062.3999967575101</v>
       </c>
       <c r="U123">
-        <v>591.42473520843396</v>
+        <v>595.57580390471605</v>
       </c>
       <c r="V123">
         <v>450</v>
       </c>
       <c r="W123">
-        <v>1464.2363959208401</v>
+        <v>1463.0000984662599</v>
       </c>
       <c r="X123">
-        <v>-7.6386807960595799</v>
+        <v>-7.2712796416723604</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
@@ -10394,49 +10394,49 @@
         <v>27</v>
       </c>
       <c r="J125">
-        <v>318.03513881145301</v>
+        <v>311.04338348442298</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>0.16967311552605499</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>2.4206085898300702</v>
       </c>
       <c r="M125">
-        <v>3.93527902634274</v>
+        <v>17.681767132369199</v>
       </c>
       <c r="N125">
-        <v>19.330878736221301</v>
+        <v>101.664515626129</v>
       </c>
       <c r="O125">
-        <v>1724.7093217593899</v>
+        <v>1623.10495470756</v>
       </c>
       <c r="P125">
-        <v>6.2444992764074803</v>
+        <v>6.1777119295538299</v>
       </c>
       <c r="Q125">
-        <v>0.83756477080691505</v>
+        <v>0.83746102795716404</v>
       </c>
       <c r="R125">
-        <v>15997.7532431049</v>
+        <v>16013.8575014086</v>
       </c>
       <c r="S125">
-        <v>510.18896082037202</v>
+        <v>510.23955785549799</v>
       </c>
       <c r="T125">
         <v>2980.0999923944501</v>
       </c>
       <c r="U125">
-        <v>369.81430781826299</v>
+        <v>350.90028442610401</v>
       </c>
       <c r="V125">
         <v>450</v>
       </c>
       <c r="W125">
-        <v>1620.7295563806999</v>
+        <v>1621.06586906129</v>
       </c>
       <c r="X125">
-        <v>-0.47356917383918301</v>
+        <v>-0.493966278665606</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
@@ -10542,49 +10542,49 @@
         <v>29</v>
       </c>
       <c r="J127">
-        <v>439.46094137666802</v>
+        <v>438.61659133211799</v>
       </c>
       <c r="K127">
-        <v>11.6076650935182</v>
+        <v>36.054592019643003</v>
       </c>
       <c r="L127">
-        <v>13.784598632664601</v>
+        <v>49.3622299056331</v>
       </c>
       <c r="M127">
-        <v>18.576221460254299</v>
+        <v>65.048473603223897</v>
       </c>
       <c r="N127">
-        <v>522.96404337380898</v>
+        <v>1266.9828314145</v>
       </c>
       <c r="O127">
-        <v>5301.0786681602103</v>
+        <v>4570.9448143388699</v>
       </c>
       <c r="P127">
-        <v>7.3074499838247897</v>
+        <v>6.95472777498816</v>
       </c>
       <c r="Q127">
-        <v>0.73454938846106699</v>
+        <v>0.706328380646708</v>
       </c>
       <c r="R127">
-        <v>9768.4330556368295</v>
+        <v>9887.93139389934</v>
       </c>
       <c r="S127">
-        <v>322.150362303843</v>
+        <v>325.25337068819499</v>
       </c>
       <c r="T127">
         <v>6999.00001418591</v>
       </c>
       <c r="U127">
-        <v>185.39432232805601</v>
+        <v>183.46635078658099</v>
       </c>
       <c r="V127">
         <v>450</v>
       </c>
       <c r="W127">
-        <v>1273.7393409225101</v>
+        <v>1276.4576155096299</v>
       </c>
       <c r="X127">
-        <v>0.41413572807135202</v>
+        <v>0.42527385065463802</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
@@ -10690,34 +10690,34 @@
         <v>25</v>
       </c>
       <c r="J129">
-        <v>0.33596353665769801</v>
+        <v>0.32926018088715903</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>6.8806068570806799E-3</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>6.8806068570806799E-3</v>
       </c>
       <c r="N129">
-        <v>1.4982699938397199</v>
+        <v>7.6552847790387402</v>
       </c>
       <c r="O129">
-        <v>6.0896395376871899</v>
+        <v>6.6840889352206299</v>
       </c>
       <c r="P129">
-        <v>1.85347718991187</v>
+        <v>1.5004806450884101</v>
       </c>
       <c r="Q129">
-        <v>0.36070084373155298</v>
+        <v>0.305267408477782</v>
       </c>
       <c r="R129">
-        <v>11351.638046151</v>
+        <v>11329.0297496284</v>
       </c>
       <c r="S129">
-        <v>413.34187815730297</v>
+        <v>413.62443307060101</v>
       </c>
       <c r="T129">
         <v>1062.3999967575101</v>
@@ -10729,10 +10729,10 @@
         <v>450</v>
       </c>
       <c r="W129">
-        <v>1030.24533404468</v>
+        <v>1027.2377451882901</v>
       </c>
       <c r="X129">
-        <v>-1.9604939788686699</v>
+        <v>-2.0251974188479802</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
@@ -10838,34 +10838,34 @@
         <v>27</v>
       </c>
       <c r="J131">
-        <v>45.018194131706601</v>
+        <v>33.2822987763684</v>
       </c>
       <c r="K131">
-        <v>3.7899598156194001</v>
+        <v>7.8970611557375197</v>
       </c>
       <c r="L131">
-        <v>14.5750075739326</v>
+        <v>26.8465532306633</v>
       </c>
       <c r="M131">
-        <v>47.564795730457398</v>
+        <v>72.254732610235493</v>
       </c>
       <c r="N131">
-        <v>239.91571123106601</v>
+        <v>398.603444635806</v>
       </c>
       <c r="O131">
-        <v>1112.18870842968</v>
+        <v>955.00722927296601</v>
       </c>
       <c r="P131">
-        <v>204.46248794072099</v>
+        <v>204.24427815115101</v>
       </c>
       <c r="Q131">
-        <v>26.221808309249599</v>
+        <v>26.787421567477001</v>
       </c>
       <c r="R131">
-        <v>15606.150460123999</v>
+        <v>15965.209977217</v>
       </c>
       <c r="S131">
-        <v>471.98107789231801</v>
+        <v>484.45426715108903</v>
       </c>
       <c r="T131">
         <v>2980.0999923944501</v>
@@ -10877,10 +10877,10 @@
         <v>450</v>
       </c>
       <c r="W131">
-        <v>1598.43225949916</v>
+        <v>1594.1628873767399</v>
       </c>
       <c r="X131">
-        <v>3.5452690864890699</v>
+        <v>4.2409390129142404</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
@@ -10986,34 +10986,34 @@
         <v>29</v>
       </c>
       <c r="J133">
-        <v>224.90349007427599</v>
+        <v>185.452217716505</v>
       </c>
       <c r="K133">
-        <v>90.060014085437402</v>
+        <v>117.417456820417</v>
       </c>
       <c r="L133">
-        <v>133.81925956336801</v>
+        <v>182.30545644363499</v>
       </c>
       <c r="M133">
-        <v>174.74905522095901</v>
+        <v>239.597288814904</v>
       </c>
       <c r="N133">
-        <v>2516.83326594145</v>
+        <v>2970.5668824178201</v>
       </c>
       <c r="O133">
-        <v>3062.53748422846</v>
+        <v>2607.2106358411302</v>
       </c>
       <c r="P133">
-        <v>196.57369382531499</v>
+        <v>211.66845635721199</v>
       </c>
       <c r="Q133">
-        <v>20.059244067319501</v>
+        <v>22.118752107140999</v>
       </c>
       <c r="R133">
-        <v>7100.95021906896</v>
+        <v>8277.9676366933909</v>
       </c>
       <c r="S133">
-        <v>200.35601394807099</v>
+        <v>233.184363887621</v>
       </c>
       <c r="T133">
         <v>6999.00001418591</v>
@@ -11025,10 +11025,10 @@
         <v>450</v>
       </c>
       <c r="W133">
-        <v>1377.12726325685</v>
+        <v>1377.62850806962</v>
       </c>
       <c r="X133">
-        <v>3.6172058066041899</v>
+        <v>2.9424605917847799</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
@@ -11134,7 +11134,7 @@
         <v>25</v>
       </c>
       <c r="J135">
-        <v>179.087208328407</v>
+        <v>171.98225905132099</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>0.22046526178729101</v>
+        <v>8.6022856845537206</v>
       </c>
       <c r="O135">
-        <v>247.92319837305701</v>
+        <v>239.922327433178</v>
       </c>
       <c r="P135">
-        <v>19.591461566234699</v>
+        <v>19.3939501105225</v>
       </c>
       <c r="Q135">
-        <v>3.34921560919872</v>
+        <v>3.3502240576324001</v>
       </c>
       <c r="R135">
-        <v>5350.0036018249202</v>
+        <v>5490.9939481271504</v>
       </c>
       <c r="S135">
-        <v>190.445968777979</v>
+        <v>196.63128232190101</v>
       </c>
       <c r="T135">
         <v>1062.3999967575101</v>
@@ -11173,10 +11173,10 @@
         <v>450</v>
       </c>
       <c r="W135">
-        <v>787.378772271137</v>
+        <v>787.113289432427</v>
       </c>
       <c r="X135">
-        <v>-1.27045707456179</v>
+        <v>-1.25033134127263</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
@@ -11282,34 +11282,34 @@
         <v>27</v>
       </c>
       <c r="J137">
-        <v>381.94184201483699</v>
+        <v>381.02795986858598</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>0.16967311552605499</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>2.4206085898300702</v>
       </c>
       <c r="M137">
-        <v>3.93527902634274</v>
+        <v>17.681767132369199</v>
       </c>
       <c r="N137">
-        <v>24.7289428805603</v>
+        <v>113.243887682134</v>
       </c>
       <c r="O137">
-        <v>1699.41444774043</v>
+        <v>1612.83232078319</v>
       </c>
       <c r="P137">
-        <v>33.170397599683497</v>
+        <v>33.284729271133401</v>
       </c>
       <c r="Q137">
-        <v>5.27105588417046</v>
+        <v>5.2754206843987701</v>
       </c>
       <c r="R137">
-        <v>6767.2557212518705</v>
+        <v>7056.87083876424</v>
       </c>
       <c r="S137">
-        <v>203.322611477621</v>
+        <v>212.86891376536801</v>
       </c>
       <c r="T137">
         <v>2980.0999923944501</v>
@@ -11321,10 +11321,10 @@
         <v>450</v>
       </c>
       <c r="W137">
-        <v>1231.2359404876299</v>
+        <v>1229.33718956491</v>
       </c>
       <c r="X137">
-        <v>2.0376857882252302</v>
+        <v>2.04697772667756</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
@@ -11430,34 +11430,34 @@
         <v>29</v>
       </c>
       <c r="J139">
-        <v>439.27728467831798</v>
+        <v>438.22768845268598</v>
       </c>
       <c r="K139">
-        <v>12.2742219811625</v>
+        <v>37.247517107931102</v>
       </c>
       <c r="L139">
-        <v>14.785698822910801</v>
+        <v>51.2423006319286</v>
       </c>
       <c r="M139">
-        <v>20.252006388186999</v>
+        <v>67.984466379966705</v>
       </c>
       <c r="N139">
-        <v>501.02000948103301</v>
+        <v>1199.53807987748</v>
       </c>
       <c r="O139">
-        <v>5329.0145009853904</v>
+        <v>4630.24563097388</v>
       </c>
       <c r="P139">
-        <v>22.359473859575299</v>
+        <v>23.2257423471587</v>
       </c>
       <c r="Q139">
-        <v>2.94499566281897</v>
+        <v>3.0841582275563302</v>
       </c>
       <c r="R139">
-        <v>4757.8212090020297</v>
+        <v>4771.3683720468998</v>
       </c>
       <c r="S139">
-        <v>158.16894046234501</v>
+        <v>158.53455121129301</v>
       </c>
       <c r="T139">
         <v>6999.00001418591</v>
@@ -11469,10 +11469,10 @@
         <v>450</v>
       </c>
       <c r="W139">
-        <v>1110.5766522890699</v>
+        <v>1110.822576177</v>
       </c>
       <c r="X139">
-        <v>0.61331254422629899</v>
+        <v>0.62501749796596495</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
@@ -11578,7 +11578,7 @@
         <v>25</v>
       </c>
       <c r="J141">
-        <v>4.00074501638142</v>
+        <v>3.9086984016385</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -11590,22 +11590,22 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>6.0268650828873303E-2</v>
+        <v>6.9003702027758598</v>
       </c>
       <c r="O141">
-        <v>5.5138549659754199</v>
+        <v>8.20682846960724</v>
       </c>
       <c r="P141">
-        <v>1.61763882635068</v>
+        <v>1.58809585883011</v>
       </c>
       <c r="Q141">
-        <v>0.52946743413221198</v>
+        <v>0.52590257314578803</v>
       </c>
       <c r="R141">
-        <v>11040.8365898998</v>
+        <v>11032.162267293499</v>
       </c>
       <c r="S141">
-        <v>381.49179645845402</v>
+        <v>380.39332905730703</v>
       </c>
       <c r="T141">
         <v>1062.3999967575101</v>
@@ -11617,10 +11617,10 @@
         <v>450</v>
       </c>
       <c r="W141">
-        <v>1016.74229991886</v>
+        <v>1013.76214732951</v>
       </c>
       <c r="X141">
-        <v>0.24547942490664501</v>
+        <v>0.44146751783918797</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.25">
@@ -11726,34 +11726,34 @@
         <v>27</v>
       </c>
       <c r="J143">
-        <v>309.10812460869897</v>
+        <v>301.13684543116102</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>0.16967311552605499</v>
       </c>
       <c r="L143">
-        <v>0</v>
+        <v>2.4206085898300702</v>
       </c>
       <c r="M143">
-        <v>3.93527902634274</v>
+        <v>17.681767132369199</v>
       </c>
       <c r="N143">
-        <v>16.1433143912002</v>
+        <v>92.432171241450604</v>
       </c>
       <c r="O143">
-        <v>1563.1978016123501</v>
+        <v>1488.3034227242899</v>
       </c>
       <c r="P143">
-        <v>6.16695912031122</v>
+        <v>6.1025363015356202</v>
       </c>
       <c r="Q143">
-        <v>0.82349559473378697</v>
+        <v>0.82319394117016798</v>
       </c>
       <c r="R143">
-        <v>12748.441374870799</v>
+        <v>12653.516778008499</v>
       </c>
       <c r="S143">
-        <v>405.116427666513</v>
+        <v>400.998116451275</v>
       </c>
       <c r="T143">
         <v>2980.0999923944501</v>
@@ -11765,10 +11765,10 @@
         <v>450</v>
       </c>
       <c r="W143">
-        <v>1442.0978420976501</v>
+        <v>1442.9597506135599</v>
       </c>
       <c r="X143">
-        <v>-1.6129056509609501</v>
+        <v>-1.7277939278551999</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
@@ -11874,34 +11874,34 @@
         <v>29</v>
       </c>
       <c r="J145">
-        <v>438.77223533231103</v>
+        <v>437.95722370592802</v>
       </c>
       <c r="K145">
-        <v>11.6076650935182</v>
+        <v>36.055562024818698</v>
       </c>
       <c r="L145">
-        <v>13.784598632664601</v>
+        <v>49.363199910808802</v>
       </c>
       <c r="M145">
-        <v>18.576221460254299</v>
+        <v>65.049443608399599</v>
       </c>
       <c r="N145">
-        <v>513.25761798736403</v>
+        <v>1244.90367661043</v>
       </c>
       <c r="O145">
-        <v>5195.55953325682</v>
+        <v>4482.0218524598804</v>
       </c>
       <c r="P145">
-        <v>7.2937500539665603</v>
+        <v>6.9422719170550797</v>
       </c>
       <c r="Q145">
-        <v>0.73236686874188095</v>
+        <v>0.70418503914875197</v>
       </c>
       <c r="R145">
-        <v>8519.45244495509</v>
+        <v>8632.5437368549792</v>
       </c>
       <c r="S145">
-        <v>278.60483974604898</v>
+        <v>281.63409040938302</v>
       </c>
       <c r="T145">
         <v>6999.00001418591</v>
@@ -11913,10 +11913,10 @@
         <v>450</v>
       </c>
       <c r="W145">
-        <v>1206.1781308458001</v>
+        <v>1206.7311752646699</v>
       </c>
       <c r="X145">
-        <v>0.38497975054987499</v>
+        <v>0.38913428707784298</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
@@ -12022,49 +12022,49 @@
         <v>25</v>
       </c>
       <c r="J147">
-        <v>0.70807303135305399</v>
+        <v>0.36861784807210701</v>
       </c>
       <c r="K147">
-        <v>0.17428270398919901</v>
+        <v>1.0579611257913699</v>
       </c>
       <c r="L147">
-        <v>0.17428270398919901</v>
+        <v>1.1025139569925</v>
       </c>
       <c r="M147">
-        <v>0.53200220265392195</v>
+        <v>3.04932931083966</v>
       </c>
       <c r="N147">
-        <v>72.711888295126101</v>
+        <v>145.57989305114401</v>
       </c>
       <c r="O147">
-        <v>125.637385742368</v>
+        <v>78.117550733264395</v>
       </c>
       <c r="P147">
-        <v>13.1196574848179</v>
+        <v>9.2561888957489398</v>
       </c>
       <c r="Q147">
-        <v>2.06011897059091</v>
+        <v>1.5397161139312101</v>
       </c>
       <c r="R147">
-        <v>14718.6613779852</v>
+        <v>14945.9518485673</v>
       </c>
       <c r="S147">
-        <v>485.25190661440598</v>
+        <v>490.204946559245</v>
       </c>
       <c r="T147">
         <v>1135.20000207424</v>
       </c>
       <c r="U147">
-        <v>788.57033957056206</v>
+        <v>808.17691600076796</v>
       </c>
       <c r="V147">
         <v>450</v>
       </c>
       <c r="W147">
-        <v>1706.7730444132401</v>
+        <v>1709.0777151744901</v>
       </c>
       <c r="X147">
-        <v>3.2623104558228002</v>
+        <v>3.3381123862170501</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
@@ -12170,49 +12170,49 @@
         <v>27</v>
       </c>
       <c r="J149">
-        <v>12.667985272677701</v>
+        <v>10.3940547136809</v>
       </c>
       <c r="K149">
-        <v>0.59633276469083896</v>
+        <v>1.75550680383292</v>
       </c>
       <c r="L149">
-        <v>7.0060544576057202</v>
+        <v>14.4355310282433</v>
       </c>
       <c r="M149">
-        <v>7.2778285523482804</v>
+        <v>15.946319521383</v>
       </c>
       <c r="N149">
-        <v>407.629692083056</v>
+        <v>645.13171877658101</v>
       </c>
       <c r="O149">
-        <v>1413.85023090645</v>
+        <v>1179.2516561367399</v>
       </c>
       <c r="P149">
-        <v>134.18257703343801</v>
+        <v>125.07279697895299</v>
       </c>
       <c r="Q149">
-        <v>20.6759871771382</v>
+        <v>19.813903780125798</v>
       </c>
       <c r="R149">
-        <v>16175.464035904801</v>
+        <v>15901.952609652701</v>
       </c>
       <c r="S149">
-        <v>509.09390244069499</v>
+        <v>496.15753243136498</v>
       </c>
       <c r="T149">
         <v>3307.9999985694899</v>
       </c>
       <c r="U149">
-        <v>280.71252726196502</v>
+        <v>283.421506329919</v>
       </c>
       <c r="V149">
         <v>450</v>
       </c>
       <c r="W149">
-        <v>1705.0034509874199</v>
+        <v>1704.77791256052</v>
       </c>
       <c r="X149">
-        <v>4.1524378694781703</v>
+        <v>3.8159083645768201</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
@@ -12318,49 +12318,49 @@
         <v>29</v>
       </c>
       <c r="J151">
-        <v>158.28130407438101</v>
+        <v>108.556862546609</v>
       </c>
       <c r="K151">
-        <v>12.114192712776299</v>
+        <v>21.790666990168301</v>
       </c>
       <c r="L151">
-        <v>47.988722187737402</v>
+        <v>72.446372154127005</v>
       </c>
       <c r="M151">
-        <v>98.697362986707205</v>
+        <v>141.390382508757</v>
       </c>
       <c r="N151">
-        <v>1899.9268473055299</v>
+        <v>2383.8710312488201</v>
       </c>
       <c r="O151">
-        <v>2988.9238335864602</v>
+        <v>2496.9706744110699</v>
       </c>
       <c r="P151">
-        <v>237.29782708533901</v>
+        <v>241.10493573134599</v>
       </c>
       <c r="Q151">
-        <v>24.9506923824019</v>
+        <v>26.524525318578799</v>
       </c>
       <c r="R151">
-        <v>8292.1865707422494</v>
+        <v>8962.9537120844507</v>
       </c>
       <c r="S151">
-        <v>242.27677806920201</v>
+        <v>270.99934265373099</v>
       </c>
       <c r="T151">
         <v>6353.8999910354596</v>
       </c>
       <c r="U151">
-        <v>100.918907668885</v>
+        <v>103.57635082496201</v>
       </c>
       <c r="V151">
         <v>450</v>
       </c>
       <c r="W151">
-        <v>1518.3000681415399</v>
+        <v>1528.9061236441901</v>
       </c>
       <c r="X151">
-        <v>9.8985810811497998</v>
+        <v>10.3168625879846</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
@@ -12466,7 +12466,7 @@
         <v>25</v>
       </c>
       <c r="J153">
-        <v>22.697704816130301</v>
+        <v>21.194323416405702</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -12478,37 +12478,37 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>1.03795943707251</v>
+        <v>20.474177909744601</v>
       </c>
       <c r="O153">
-        <v>345.204694849509</v>
+        <v>325.81306771808403</v>
       </c>
       <c r="P153">
-        <v>9.2687737242519699</v>
+        <v>9.2738970700090704</v>
       </c>
       <c r="Q153">
-        <v>1.9168318288286099</v>
+        <v>1.9166239325388199</v>
       </c>
       <c r="R153">
-        <v>13536.4688642696</v>
+        <v>13579.6006816298</v>
       </c>
       <c r="S153">
-        <v>505.73683753192802</v>
+        <v>507.17363191808698</v>
       </c>
       <c r="T153">
         <v>1135.20000207424</v>
       </c>
       <c r="U153">
-        <v>700.11030206886699</v>
+        <v>700.10130126925799</v>
       </c>
       <c r="V153">
         <v>450</v>
       </c>
       <c r="W153">
-        <v>1477.4102750939101</v>
+        <v>1477.3645236352099</v>
       </c>
       <c r="X153">
-        <v>1.2954590041734499</v>
+        <v>1.30012738855362</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
@@ -12614,49 +12614,49 @@
         <v>27</v>
       </c>
       <c r="J155">
-        <v>267.656191116907</v>
+        <v>264.18290191443202</v>
       </c>
       <c r="K155">
         <v>0</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>1.1106082870677301</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>1.1106082870677301</v>
       </c>
       <c r="N155">
-        <v>19.675801106839099</v>
+        <v>99.104499961194804</v>
       </c>
       <c r="O155">
-        <v>2017.2575911152401</v>
+        <v>1937.86058954796</v>
       </c>
       <c r="P155">
-        <v>22.045301822967001</v>
+        <v>21.9101502156756</v>
       </c>
       <c r="Q155">
-        <v>3.66585111514441</v>
+        <v>3.6729328747631298</v>
       </c>
       <c r="R155">
-        <v>13991.2695043071</v>
+        <v>13983.5448071545</v>
       </c>
       <c r="S155">
-        <v>453.16430089027602</v>
+        <v>454.23897556972901</v>
       </c>
       <c r="T155">
         <v>3307.9999985694899</v>
       </c>
       <c r="U155">
-        <v>353.699186835322</v>
+        <v>353.16490153202301</v>
       </c>
       <c r="V155">
         <v>450</v>
       </c>
       <c r="W155">
-        <v>1557.3359904940901</v>
+        <v>1556.7761869067499</v>
       </c>
       <c r="X155">
-        <v>0.75209472642842401</v>
+        <v>0.79919319521135002</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
@@ -12762,49 +12762,49 @@
         <v>29</v>
       </c>
       <c r="J157">
-        <v>422.66174845453099</v>
+        <v>421.52494839813801</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>1.77226490090972</v>
       </c>
       <c r="L157">
-        <v>0.55705156002271194</v>
+        <v>8.6621308835027104</v>
       </c>
       <c r="M157">
-        <v>3.5268083107872799</v>
+        <v>27.4055820032866</v>
       </c>
       <c r="N157">
-        <v>434.20514918945003</v>
+        <v>991.56116613387098</v>
       </c>
       <c r="O157">
-        <v>4770.01752931994</v>
+        <v>4211.3465318935396</v>
       </c>
       <c r="P157">
-        <v>27.583204153826099</v>
+        <v>27.8077691053062</v>
       </c>
       <c r="Q157">
-        <v>4.0071252203259196</v>
+        <v>4.0227435945820096</v>
       </c>
       <c r="R157">
-        <v>7061.8947349356304</v>
+        <v>7080.5935861775697</v>
       </c>
       <c r="S157">
-        <v>226.73654241093499</v>
+        <v>226.94403042095399</v>
       </c>
       <c r="T157">
         <v>6353.8999910354596</v>
       </c>
       <c r="U157">
-        <v>257.91651174753503</v>
+        <v>258.41821248569698</v>
       </c>
       <c r="V157">
         <v>450</v>
       </c>
       <c r="W157">
-        <v>1355.7304469845701</v>
+        <v>1357.54419840794</v>
       </c>
       <c r="X157">
-        <v>0.34612637250318101</v>
+        <v>0.33923061603295102</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
@@ -12910,7 +12910,7 @@
         <v>25</v>
       </c>
       <c r="J159">
-        <v>2.7052037435425902</v>
+        <v>1.6726139996936999</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -12922,37 +12922,37 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <v>1.1040463956634801</v>
+        <v>21.358459135966299</v>
       </c>
       <c r="O159">
-        <v>190.818494377809</v>
+        <v>156.747425164671</v>
       </c>
       <c r="P159">
-        <v>0.76080198893094997</v>
+        <v>0.75282836380340801</v>
       </c>
       <c r="Q159">
-        <v>0.326894067932748</v>
+        <v>0.32681661292514202</v>
       </c>
       <c r="R159">
-        <v>14012.6547688013</v>
+        <v>13983.372168391101</v>
       </c>
       <c r="S159">
-        <v>501.37951131420601</v>
+        <v>499.66067155738199</v>
       </c>
       <c r="T159">
         <v>1135.20000207424</v>
       </c>
       <c r="U159">
-        <v>554.32913323626201</v>
+        <v>558.74323243277001</v>
       </c>
       <c r="V159">
         <v>450</v>
       </c>
       <c r="W159">
-        <v>1582.5732497484801</v>
+        <v>1584.4453911445801</v>
       </c>
       <c r="X159">
-        <v>-5.1397369970850404</v>
+        <v>-4.5324050424211597</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
@@ -13058,49 +13058,49 @@
         <v>27</v>
       </c>
       <c r="J161">
-        <v>51.640685120308</v>
+        <v>47.791367128936997</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>1.1106082870677301</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>1.11167763774741</v>
       </c>
       <c r="N161">
-        <v>39.318915836163498</v>
+        <v>159.25371303687101</v>
       </c>
       <c r="O161">
-        <v>1819.5203752228499</v>
+        <v>1706.6569301362899</v>
       </c>
       <c r="P161">
-        <v>3.5341063613852</v>
+        <v>3.4908349662556102</v>
       </c>
       <c r="Q161">
-        <v>0.69642940960256605</v>
+        <v>0.69619475843156298</v>
       </c>
       <c r="R161">
-        <v>14881.0971896258</v>
+        <v>14756.976467148999</v>
       </c>
       <c r="S161">
-        <v>536.07743770835805</v>
+        <v>531.72594593491101</v>
       </c>
       <c r="T161">
         <v>3307.9999985694899</v>
       </c>
       <c r="U161">
-        <v>208.197478851608</v>
+        <v>208.232867805463</v>
       </c>
       <c r="V161">
         <v>450</v>
       </c>
       <c r="W161">
-        <v>1576.97625495185</v>
+        <v>1577.0263038329699</v>
       </c>
       <c r="X161">
-        <v>0.93454923889123698</v>
+        <v>0.83810171315702298</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
@@ -13206,49 +13206,49 @@
         <v>29</v>
       </c>
       <c r="J163">
-        <v>404.24712487433101</v>
+        <v>397.914191572655</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>1.74706964419191</v>
       </c>
       <c r="L163">
-        <v>1.5178923619648499</v>
+        <v>13.723435566457701</v>
       </c>
       <c r="M163">
-        <v>4.7293649086879999</v>
+        <v>33.3102143497564</v>
       </c>
       <c r="N163">
-        <v>417.71207905592797</v>
+        <v>961.56735403804703</v>
       </c>
       <c r="O163">
-        <v>4572.3431626379797</v>
+        <v>4025.9995933660798</v>
       </c>
       <c r="P163">
-        <v>6.0909389461140604</v>
+        <v>6.0042285337670496</v>
       </c>
       <c r="Q163">
-        <v>0.73443194614698804</v>
+        <v>0.73439327057067605</v>
       </c>
       <c r="R163">
-        <v>9400.9546165685097</v>
+        <v>9666.6392094709008</v>
       </c>
       <c r="S163">
-        <v>298.44360463317798</v>
+        <v>305.93426926861503</v>
       </c>
       <c r="T163">
         <v>6353.8999910354596</v>
       </c>
       <c r="U163">
-        <v>126.95434205825801</v>
+        <v>122.81173014926701</v>
       </c>
       <c r="V163">
         <v>450</v>
       </c>
       <c r="W163">
-        <v>1381.92175450083</v>
+        <v>1385.99779893358</v>
       </c>
       <c r="X163">
-        <v>0.53410895326509</v>
+        <v>0.58521451260794999</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
@@ -13354,7 +13354,7 @@
         <v>25</v>
       </c>
       <c r="J165">
-        <v>0.29672417450099098</v>
+        <v>0.28085168456148302</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -13366,22 +13366,22 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <v>9.0307753281333092</v>
+        <v>16.8984079277229</v>
       </c>
       <c r="O165">
-        <v>29.843655885436998</v>
+        <v>30.228161162414299</v>
       </c>
       <c r="P165">
-        <v>5.5119692860082603</v>
+        <v>4.7726311318205203</v>
       </c>
       <c r="Q165">
-        <v>1.05352503050374</v>
+        <v>0.92587644564865701</v>
       </c>
       <c r="R165">
-        <v>12207.293315852899</v>
+        <v>12198.519287044501</v>
       </c>
       <c r="S165">
-        <v>425.61636302288201</v>
+        <v>425.65145435788298</v>
       </c>
       <c r="T165">
         <v>1135.20000207424</v>
@@ -13393,10 +13393,10 @@
         <v>450</v>
       </c>
       <c r="W165">
-        <v>1161.43855117783</v>
+        <v>1154.2438770277199</v>
       </c>
       <c r="X165">
-        <v>0.53888385196514499</v>
+        <v>0.38129018511741603</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
@@ -13502,34 +13502,34 @@
         <v>27</v>
       </c>
       <c r="J167">
-        <v>12.137036714364999</v>
+        <v>10.1585003500768</v>
       </c>
       <c r="K167">
-        <v>0.59633276469083896</v>
+        <v>1.75550680383292</v>
       </c>
       <c r="L167">
-        <v>7.0060544576057202</v>
+        <v>14.4355310282433</v>
       </c>
       <c r="M167">
-        <v>7.2778285523482804</v>
+        <v>15.946319521383</v>
       </c>
       <c r="N167">
-        <v>338.63974769950403</v>
+        <v>565.30792069904703</v>
       </c>
       <c r="O167">
-        <v>1311.6935051286</v>
+        <v>1086.2351439691699</v>
       </c>
       <c r="P167">
-        <v>129.87032115413999</v>
+        <v>121.82411317983799</v>
       </c>
       <c r="Q167">
-        <v>20.4013668150169</v>
+        <v>19.597636674264201</v>
       </c>
       <c r="R167">
-        <v>14573.6768125462</v>
+        <v>14010.111580299999</v>
       </c>
       <c r="S167">
-        <v>472.77590196508498</v>
+        <v>455.08222682193298</v>
       </c>
       <c r="T167">
         <v>3307.9999985694899</v>
@@ -13541,10 +13541,10 @@
         <v>450</v>
       </c>
       <c r="W167">
-        <v>1603.3086152045801</v>
+        <v>1603.95425971657</v>
       </c>
       <c r="X167">
-        <v>4.14981024882296</v>
+        <v>3.7960753863750898</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
@@ -13650,34 +13650,34 @@
         <v>29</v>
       </c>
       <c r="J169">
-        <v>158.09195630861501</v>
+        <v>108.927327244613</v>
       </c>
       <c r="K169">
-        <v>12.114192712776299</v>
+        <v>21.790666990168301</v>
       </c>
       <c r="L169">
-        <v>47.988722187737402</v>
+        <v>72.446372154127005</v>
       </c>
       <c r="M169">
-        <v>98.697362986707205</v>
+        <v>141.390382508757</v>
       </c>
       <c r="N169">
-        <v>1840.89138425394</v>
+        <v>2298.0311558479798</v>
       </c>
       <c r="O169">
-        <v>2956.7038062792399</v>
+        <v>2483.2317242405902</v>
       </c>
       <c r="P169">
-        <v>236.65866033810499</v>
+        <v>241.24064799130801</v>
       </c>
       <c r="Q169">
-        <v>24.911935469466101</v>
+        <v>26.549103493912199</v>
       </c>
       <c r="R169">
-        <v>8147.8526756671499</v>
+        <v>8260.7521727669991</v>
       </c>
       <c r="S169">
-        <v>238.922230885598</v>
+        <v>251.73484103639501</v>
       </c>
       <c r="T169">
         <v>6353.8999910354596</v>
@@ -13689,10 +13689,10 @@
         <v>450</v>
       </c>
       <c r="W169">
-        <v>1508.6236595222999</v>
+        <v>1524.8776723301301</v>
       </c>
       <c r="X169">
-        <v>10.2183812146931</v>
+        <v>12.199509046759299</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
@@ -13798,7 +13798,7 @@
         <v>25</v>
       </c>
       <c r="J171">
-        <v>192.31361589432299</v>
+        <v>182.225122511808</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -13810,22 +13810,22 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <v>0.29138622908392797</v>
+        <v>10.4188320226007</v>
       </c>
       <c r="O171">
-        <v>245.77394115579199</v>
+        <v>235.521359136553</v>
       </c>
       <c r="P171">
-        <v>14.6946744164809</v>
+        <v>15.0660945772649</v>
       </c>
       <c r="Q171">
-        <v>1.9929498603606</v>
+        <v>1.9914141762534801</v>
       </c>
       <c r="R171">
-        <v>5942.5188237048096</v>
+        <v>6034.6711636994096</v>
       </c>
       <c r="S171">
-        <v>206.26419592008901</v>
+        <v>213.61631053749801</v>
       </c>
       <c r="T171">
         <v>1135.20000207424</v>
@@ -13837,10 +13837,10 @@
         <v>450</v>
       </c>
       <c r="W171">
-        <v>881.651878488438</v>
+        <v>881.76389300388905</v>
       </c>
       <c r="X171">
-        <v>0.63913928383384599</v>
+        <v>0.51713726075014299</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
@@ -13946,34 +13946,34 @@
         <v>27</v>
       </c>
       <c r="J173">
-        <v>265.213813373157</v>
+        <v>261.76328753426299</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>1.1106082870677301</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>1.1106082870677301</v>
       </c>
       <c r="N173">
-        <v>18.8741829536295</v>
+        <v>90.1546910816446</v>
       </c>
       <c r="O173">
-        <v>1901.11389340855</v>
+        <v>1829.5690184897001</v>
       </c>
       <c r="P173">
-        <v>22.065453863624398</v>
+        <v>21.926795983607501</v>
       </c>
       <c r="Q173">
-        <v>3.6658885209422198</v>
+        <v>3.67292063879002</v>
       </c>
       <c r="R173">
-        <v>9942.2141657343109</v>
+        <v>9949.3543926052807</v>
       </c>
       <c r="S173">
-        <v>324.28895020058798</v>
+        <v>325.62833640084898</v>
       </c>
       <c r="T173">
         <v>3307.9999985694899</v>
@@ -13985,10 +13985,10 @@
         <v>450</v>
       </c>
       <c r="W173">
-        <v>1321.4026519921699</v>
+        <v>1321.6735091738799</v>
       </c>
       <c r="X173">
-        <v>1.12624390142061</v>
+        <v>1.0901215958545301</v>
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.25">
@@ -14094,34 +14094,34 @@
         <v>29</v>
       </c>
       <c r="J175">
-        <v>425.05747261704897</v>
+        <v>423.72454751666902</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1.7650945430065199</v>
       </c>
       <c r="L175">
-        <v>0.55635734804447201</v>
+        <v>8.6451788244610697</v>
       </c>
       <c r="M175">
-        <v>3.5258688183184699</v>
+        <v>27.3757480734516</v>
       </c>
       <c r="N175">
-        <v>391.53582917334597</v>
+        <v>914.94644929886795</v>
       </c>
       <c r="O175">
-        <v>4690.9056839278001</v>
+        <v>4166.53582165849</v>
       </c>
       <c r="P175">
-        <v>27.702288880909499</v>
+        <v>27.9321419647131</v>
       </c>
       <c r="Q175">
-        <v>4.0150278980662799</v>
+        <v>4.0308094668933601</v>
       </c>
       <c r="R175">
-        <v>4131.6039150644701</v>
+        <v>4154.4868218051497</v>
       </c>
       <c r="S175">
-        <v>133.365387396035</v>
+        <v>133.678267313182</v>
       </c>
       <c r="T175">
         <v>6353.8999910354596</v>
@@ -14133,10 +14133,10 @@
         <v>450</v>
       </c>
       <c r="W175">
-        <v>1219.62547982604</v>
+        <v>1220.5834367334201</v>
       </c>
       <c r="X175">
-        <v>0.83824642441172303</v>
+        <v>0.83431281199194396</v>
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
@@ -14242,7 +14242,7 @@
         <v>25</v>
       </c>
       <c r="J177">
-        <v>-1.635094329757</v>
+        <v>-1.73325358202871</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -14254,22 +14254,22 @@
         <v>0</v>
       </c>
       <c r="N177">
-        <v>0.13578631601480501</v>
+        <v>8.8430906681022492</v>
       </c>
       <c r="O177">
-        <v>28.968916078294299</v>
+        <v>30.976049573235102</v>
       </c>
       <c r="P177">
-        <v>0.91508567868373103</v>
+        <v>0.82317021127810197</v>
       </c>
       <c r="Q177">
-        <v>0.23815383677642299</v>
+        <v>0.234147357575265</v>
       </c>
       <c r="R177">
-        <v>10851.2220760237</v>
+        <v>10865.5372232601</v>
       </c>
       <c r="S177">
-        <v>391.96497232717599</v>
+        <v>391.97866475865999</v>
       </c>
       <c r="T177">
         <v>1135.20000207424</v>
@@ -14281,10 +14281,10 @@
         <v>450</v>
       </c>
       <c r="W177">
-        <v>1168.9257104686201</v>
+        <v>1162.7389833842301</v>
       </c>
       <c r="X177">
-        <v>-3.7637090760694201</v>
+        <v>-3.7116184291624101</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.25">
@@ -14390,34 +14390,34 @@
         <v>27</v>
       </c>
       <c r="J179">
-        <v>48.765582161260198</v>
+        <v>44.789376932136499</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>1.1106082870677301</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>1.11167763774741</v>
       </c>
       <c r="N179">
-        <v>32.613147884868098</v>
+        <v>133.09090306528</v>
       </c>
       <c r="O179">
-        <v>1703.1294934641301</v>
+        <v>1612.8947630601599</v>
       </c>
       <c r="P179">
-        <v>3.5019142569555899</v>
+        <v>3.46115833926982</v>
       </c>
       <c r="Q179">
-        <v>0.691630815962885</v>
+        <v>0.69143093910068498</v>
       </c>
       <c r="R179">
-        <v>14094.6168118023</v>
+        <v>14110.4866415539</v>
       </c>
       <c r="S179">
-        <v>510.11167433152599</v>
+        <v>509.705555399145</v>
       </c>
       <c r="T179">
         <v>3307.9999985694899</v>
@@ -14429,10 +14429,10 @@
         <v>450</v>
       </c>
       <c r="W179">
-        <v>1514.1035819778999</v>
+        <v>1514.2741114023299</v>
       </c>
       <c r="X179">
-        <v>0.84904541168334602</v>
+        <v>0.73369970894349801</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
@@ -14538,34 +14538,34 @@
         <v>29</v>
       </c>
       <c r="J181">
-        <v>403.86641214878</v>
+        <v>397.49687589224197</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>1.74706964419191</v>
       </c>
       <c r="L181">
-        <v>1.5178923619648499</v>
+        <v>13.723435566457701</v>
       </c>
       <c r="M181">
-        <v>4.7293649086879999</v>
+        <v>33.3102143497564</v>
       </c>
       <c r="N181">
-        <v>393.17292724410999</v>
+        <v>931.20262304928406</v>
       </c>
       <c r="O181">
-        <v>4507.8556882013199</v>
+        <v>3973.7412505171701</v>
       </c>
       <c r="P181">
-        <v>6.0837254890671302</v>
+        <v>5.9972253029039297</v>
       </c>
       <c r="Q181">
-        <v>0.73309661088267597</v>
+        <v>0.73288477094812499</v>
       </c>
       <c r="R181">
-        <v>9010.2723373992903</v>
+        <v>9227.6613702167397</v>
       </c>
       <c r="S181">
-        <v>283.81983248393101</v>
+        <v>289.31627547348103</v>
       </c>
       <c r="T181">
         <v>6353.8999910354596</v>
@@ -14577,10 +14577,10 @@
         <v>450</v>
       </c>
       <c r="W181">
-        <v>1348.94315301454</v>
+        <v>1349.99921489382</v>
       </c>
       <c r="X181">
-        <v>0.50628231328834505</v>
+        <v>0.54677852801912596</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.25">
@@ -14686,49 +14686,49 @@
         <v>25</v>
       </c>
       <c r="J183">
-        <v>1.6652177672017601</v>
+        <v>1.4289758423547101</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>1.54765512042205E-2</v>
       </c>
       <c r="M183">
-        <v>0.632957779873911</v>
+        <v>2.42370596155041</v>
       </c>
       <c r="N183">
-        <v>30.677762483127299</v>
+        <v>113.416674702512</v>
       </c>
       <c r="O183">
-        <v>212.68801448219901</v>
+        <v>192.90801112006801</v>
       </c>
       <c r="P183">
-        <v>26.101869557466198</v>
+        <v>16.879191343889602</v>
       </c>
       <c r="Q183">
-        <v>4.6771280838981104</v>
+        <v>2.9873275379466002</v>
       </c>
       <c r="R183">
-        <v>13534.3920200579</v>
+        <v>13715.158006862001</v>
       </c>
       <c r="S183">
-        <v>461.283980876469</v>
+        <v>471.29707581696499</v>
       </c>
       <c r="T183">
         <v>911.3000010252</v>
       </c>
       <c r="U183">
-        <v>1050.27918826737</v>
+        <v>1110.30030299025</v>
       </c>
       <c r="V183">
         <v>450</v>
       </c>
       <c r="W183">
-        <v>1745.5630043009201</v>
+        <v>1741.294631921</v>
       </c>
       <c r="X183">
-        <v>2.7291907759240699</v>
+        <v>2.1338416168451899</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
@@ -14834,49 +14834,49 @@
         <v>27</v>
       </c>
       <c r="J185">
-        <v>31.8913340912252</v>
+        <v>21.200807650562901</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>7.0391643661004005E-2</v>
       </c>
       <c r="L185">
-        <v>8.3075092220780196</v>
+        <v>15.514561913909599</v>
       </c>
       <c r="M185">
-        <v>46.956804783706403</v>
+        <v>69.185342261371105</v>
       </c>
       <c r="N185">
-        <v>249.32781878384901</v>
+        <v>429.60896327436899</v>
       </c>
       <c r="O185">
-        <v>1076.4785145963499</v>
+        <v>939.85802462881304</v>
       </c>
       <c r="P185">
-        <v>185.835790628148</v>
+        <v>179.580702907004</v>
       </c>
       <c r="Q185">
-        <v>24.123206839306899</v>
+        <v>24.2361418234212</v>
       </c>
       <c r="R185">
-        <v>17529.582495382001</v>
+        <v>17871.6282593375</v>
       </c>
       <c r="S185">
-        <v>523.53276987082904</v>
+        <v>531.32596903864896</v>
       </c>
       <c r="T185">
         <v>2529.80000162125</v>
       </c>
       <c r="U185">
-        <v>533.67587814740205</v>
+        <v>584.33061317086697</v>
       </c>
       <c r="V185">
         <v>450</v>
       </c>
       <c r="W185">
-        <v>1735.4767341306999</v>
+        <v>1742.7611178342599</v>
       </c>
       <c r="X185">
-        <v>4.7882440174159697</v>
+        <v>5.0498214469166101</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
@@ -14982,49 +14982,49 @@
         <v>29</v>
       </c>
       <c r="J187">
-        <v>220.902270440791</v>
+        <v>185.87508560106301</v>
       </c>
       <c r="K187">
-        <v>7.9568536984740303</v>
+        <v>15.3346069477365</v>
       </c>
       <c r="L187">
-        <v>59.153112794774998</v>
+        <v>81.971959208046599</v>
       </c>
       <c r="M187">
-        <v>146.72959096328</v>
+        <v>201.15566290586699</v>
       </c>
       <c r="N187">
-        <v>1731.58647636251</v>
+        <v>2132.4385343601798</v>
       </c>
       <c r="O187">
-        <v>2904.5554221863199</v>
+        <v>2495.7767073197801</v>
       </c>
       <c r="P187">
-        <v>215.04289669283199</v>
+        <v>225.40478705243501</v>
       </c>
       <c r="Q187">
-        <v>23.451484891271399</v>
+        <v>24.750898709036701</v>
       </c>
       <c r="R187">
-        <v>5130.7202314006099</v>
+        <v>5989.5160997980202</v>
       </c>
       <c r="S187">
-        <v>143.68979838440501</v>
+        <v>170.706366982714</v>
       </c>
       <c r="T187">
         <v>5831.0999951362601</v>
       </c>
       <c r="U187">
-        <v>68.627411945240794</v>
+        <v>68.514509755556304</v>
       </c>
       <c r="V187">
         <v>450</v>
       </c>
       <c r="W187">
-        <v>1276.6364669095899</v>
+        <v>1284.05175554465</v>
       </c>
       <c r="X187">
-        <v>0.75240392561223501</v>
+        <v>0.76989344826832395</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
@@ -15130,7 +15130,7 @@
         <v>25</v>
       </c>
       <c r="J189">
-        <v>23.467673425944099</v>
+        <v>23.142181113526501</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -15142,37 +15142,37 @@
         <v>0</v>
       </c>
       <c r="N189">
-        <v>1.3565398561095001E-5</v>
+        <v>3.4281489114000601</v>
       </c>
       <c r="O189">
-        <v>254.47609106558301</v>
+        <v>251.10418453807199</v>
       </c>
       <c r="P189">
-        <v>12.1627584145466</v>
+        <v>12.1535764556878</v>
       </c>
       <c r="Q189">
-        <v>2.4886559279690501</v>
+        <v>2.4883897339771002</v>
       </c>
       <c r="R189">
-        <v>12581.944108657501</v>
+        <v>12587.667195038801</v>
       </c>
       <c r="S189">
-        <v>472.677907076569</v>
+        <v>472.85497790119399</v>
       </c>
       <c r="T189">
         <v>911.3000010252</v>
       </c>
       <c r="U189">
-        <v>849.68884988806803</v>
+        <v>849.59603715195794</v>
       </c>
       <c r="V189">
         <v>450</v>
       </c>
       <c r="W189">
-        <v>1518.9643836314399</v>
+        <v>1518.79228481215</v>
       </c>
       <c r="X189">
-        <v>1.26598826009098</v>
+        <v>1.2643803739639401</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.25">
@@ -15278,49 +15278,49 @@
         <v>27</v>
       </c>
       <c r="J191">
-        <v>327.505219557038</v>
+        <v>322.43404058164998</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>0.53539457410785796</v>
       </c>
       <c r="M191">
-        <v>6.0728852224306999</v>
+        <v>19.079401824488102</v>
       </c>
       <c r="N191">
-        <v>7.3187040737379503</v>
+        <v>63.0614966746666</v>
       </c>
       <c r="O191">
-        <v>1544.2767837204699</v>
+        <v>1487.3593019023699</v>
       </c>
       <c r="P191">
-        <v>22.952361631381098</v>
+        <v>23.211995708474198</v>
       </c>
       <c r="Q191">
-        <v>3.9302125435319799</v>
+        <v>3.9402408724082401</v>
       </c>
       <c r="R191">
-        <v>12484.6338150789</v>
+        <v>12569.6204115321</v>
       </c>
       <c r="S191">
-        <v>395.094939283489</v>
+        <v>399.028918479803</v>
       </c>
       <c r="T191">
         <v>2529.80000162125</v>
       </c>
       <c r="U191">
-        <v>542.816908782724</v>
+        <v>542.78706749911703</v>
       </c>
       <c r="V191">
         <v>450</v>
       </c>
       <c r="W191">
-        <v>1531.59969327267</v>
+        <v>1532.8468455771599</v>
       </c>
       <c r="X191">
-        <v>2.3191036035361101</v>
+        <v>2.3355933504312398</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
@@ -15426,49 +15426,49 @@
         <v>29</v>
       </c>
       <c r="J193">
-        <v>431.34068875571</v>
+        <v>430.976277879615</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>0.92766069051150202</v>
       </c>
       <c r="L193">
-        <v>10.4510780947119</v>
+        <v>28.0910056048676</v>
       </c>
       <c r="M193">
-        <v>15.3766502667771</v>
+        <v>56.736761499049202</v>
       </c>
       <c r="N193">
-        <v>341.76934209230899</v>
+        <v>863.39837203484899</v>
       </c>
       <c r="O193">
-        <v>4532.3245963990003</v>
+        <v>4010.7061285231198</v>
       </c>
       <c r="P193">
-        <v>25.6881675761528</v>
+        <v>25.8439665327314</v>
       </c>
       <c r="Q193">
-        <v>3.6714404364317601</v>
+        <v>3.6835606416920799</v>
       </c>
       <c r="R193">
-        <v>5186.6640591831901</v>
+        <v>5206.7090211734403</v>
       </c>
       <c r="S193">
-        <v>170.81062390182001</v>
+        <v>171.377536327635</v>
       </c>
       <c r="T193">
         <v>5831.0999951362601</v>
       </c>
       <c r="U193">
-        <v>206.09465154994999</v>
+        <v>206.21920910762401</v>
       </c>
       <c r="V193">
         <v>450</v>
       </c>
       <c r="W193">
-        <v>1178.2066218585001</v>
+        <v>1178.56791029737</v>
       </c>
       <c r="X193">
-        <v>0.28948980204685798</v>
+        <v>0.28786021924616301</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
@@ -15574,7 +15574,7 @@
         <v>25</v>
       </c>
       <c r="J195">
-        <v>4.8519937288903003</v>
+        <v>4.8330305307875401</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -15586,37 +15586,37 @@
         <v>0</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>2.2200714791421001</v>
       </c>
       <c r="O195">
-        <v>183.937072602538</v>
+        <v>183.26342642001401</v>
       </c>
       <c r="P195">
-        <v>0.81416651180090904</v>
+        <v>0.81384364352478</v>
       </c>
       <c r="Q195">
-        <v>0.37159802202794501</v>
+        <v>0.37159947615099398</v>
       </c>
       <c r="R195">
-        <v>12527.936480349301</v>
+        <v>12528.0805970972</v>
       </c>
       <c r="S195">
-        <v>449.33924668204799</v>
+        <v>449.33776471886102</v>
       </c>
       <c r="T195">
         <v>911.3000010252</v>
       </c>
       <c r="U195">
-        <v>813.35491732201001</v>
+        <v>813.35506307675598</v>
       </c>
       <c r="V195">
         <v>450</v>
       </c>
       <c r="W195">
-        <v>1652.2001195411201</v>
+        <v>1652.18511884341</v>
       </c>
       <c r="X195">
-        <v>0.61308251725860397</v>
+        <v>0.77619519572846696</v>
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
@@ -15722,49 +15722,49 @@
         <v>27</v>
       </c>
       <c r="J197">
-        <v>218.70132909623899</v>
+        <v>207.894834835263</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>1.42264497724734</v>
       </c>
       <c r="M197">
-        <v>6.0728852224306999</v>
+        <v>19.966652227627499</v>
       </c>
       <c r="N197">
-        <v>9.8490635087286797</v>
+        <v>78.144565294327293</v>
       </c>
       <c r="O197">
-        <v>1427.80867388259</v>
+        <v>1359.4843449074001</v>
       </c>
       <c r="P197">
-        <v>5.0239077175010696</v>
+        <v>4.9154935408983604</v>
       </c>
       <c r="Q197">
-        <v>0.70830196949115298</v>
+        <v>0.707870221115251</v>
       </c>
       <c r="R197">
-        <v>16111.8876382667</v>
+        <v>16439.130384059499</v>
       </c>
       <c r="S197">
-        <v>540.05694681634805</v>
+        <v>550.11772562544002</v>
       </c>
       <c r="T197">
         <v>2529.80000162125</v>
       </c>
       <c r="U197">
-        <v>459.51663001295299</v>
+        <v>462.770180181397</v>
       </c>
       <c r="V197">
         <v>450</v>
       </c>
       <c r="W197">
-        <v>1613.32275966725</v>
+        <v>1615.54890919592</v>
       </c>
       <c r="X197">
-        <v>0.73886579007637498</v>
+        <v>0.74730950305777699</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
@@ -15870,49 +15870,49 @@
         <v>29</v>
       </c>
       <c r="J199">
-        <v>433.27738927708998</v>
+        <v>431.51276764911302</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>0.664393259120866</v>
       </c>
       <c r="L199">
-        <v>8.7233609178755902</v>
+        <v>25.0631010483762</v>
       </c>
       <c r="M199">
-        <v>13.7869812401186</v>
+        <v>53.574985066642</v>
       </c>
       <c r="N199">
-        <v>318.76129905141698</v>
+        <v>828.90944231865501</v>
       </c>
       <c r="O199">
-        <v>4440.0171632495103</v>
+        <v>3932.7086116062301</v>
       </c>
       <c r="P199">
-        <v>6.3113102310044997</v>
+        <v>6.2540665298702303</v>
       </c>
       <c r="Q199">
-        <v>0.702583023632397</v>
+        <v>0.70229463132958803</v>
       </c>
       <c r="R199">
-        <v>6593.8307201041998</v>
+        <v>6638.1427133381903</v>
       </c>
       <c r="S199">
-        <v>217.73394793304701</v>
+        <v>218.34391990234599</v>
       </c>
       <c r="T199">
         <v>5831.0999951362601</v>
       </c>
       <c r="U199">
-        <v>83.181240957864304</v>
+        <v>86.124656932130407</v>
       </c>
       <c r="V199">
         <v>450</v>
       </c>
       <c r="W199">
-        <v>1175.03865014757</v>
+        <v>1176.4002431626</v>
       </c>
       <c r="X199">
-        <v>0.26433491639711199</v>
+        <v>0.26964765516884998</v>
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
@@ -16018,34 +16018,34 @@
         <v>25</v>
       </c>
       <c r="J201">
-        <v>0.77388279158103102</v>
+        <v>0.743104717026281</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0</v>
+        <v>1.9066059966960501E-2</v>
       </c>
       <c r="M201">
-        <v>0</v>
+        <v>1.9066059966960501E-2</v>
       </c>
       <c r="N201">
-        <v>0.62059902432882896</v>
+        <v>3.13056400113503</v>
       </c>
       <c r="O201">
-        <v>54.7921583399662</v>
+        <v>52.105513394814103</v>
       </c>
       <c r="P201">
-        <v>0.21725609297925699</v>
+        <v>0.13769481915478099</v>
       </c>
       <c r="Q201">
-        <v>4.4601919327768497E-2</v>
+        <v>4.2261311791562201E-2</v>
       </c>
       <c r="R201">
-        <v>10389.867087021799</v>
+        <v>10376.1567667741</v>
       </c>
       <c r="S201">
-        <v>386.39439961098401</v>
+        <v>386.17559351660799</v>
       </c>
       <c r="T201">
         <v>911.3000010252</v>
@@ -16057,10 +16057,10 @@
         <v>450</v>
       </c>
       <c r="W201">
-        <v>1020.2713004467701</v>
+        <v>1018.58108836594</v>
       </c>
       <c r="X201">
-        <v>2.8855574130938302</v>
+        <v>2.8386827900493801</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
@@ -16166,34 +16166,34 @@
         <v>27</v>
       </c>
       <c r="J203">
-        <v>27.334051025897601</v>
+        <v>18.0297701579487</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>7.0391643661004005E-2</v>
       </c>
       <c r="L203">
-        <v>8.7304646404701298</v>
+        <v>16.049042113036201</v>
       </c>
       <c r="M203">
-        <v>46.3063962674102</v>
+        <v>69.656657486865001</v>
       </c>
       <c r="N203">
-        <v>220.90020018563101</v>
+        <v>358.34692045160699</v>
       </c>
       <c r="O203">
-        <v>890.39238616912201</v>
+        <v>756.31055499739796</v>
       </c>
       <c r="P203">
-        <v>182.21470561975599</v>
+        <v>177.71747428066101</v>
       </c>
       <c r="Q203">
-        <v>23.9394900219799</v>
+        <v>24.125685611665801</v>
       </c>
       <c r="R203">
-        <v>12343.3567235474</v>
+        <v>12780.5192201966</v>
       </c>
       <c r="S203">
-        <v>377.05899811314998</v>
+        <v>392.235534113119</v>
       </c>
       <c r="T203">
         <v>2529.80000162125</v>
@@ -16205,10 +16205,10 @@
         <v>450</v>
       </c>
       <c r="W203">
-        <v>1440.76133290488</v>
+        <v>1438.25028823921</v>
       </c>
       <c r="X203">
-        <v>6.9648613927982996</v>
+        <v>6.9524778522940496</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
@@ -16314,34 +16314,34 @@
         <v>29</v>
       </c>
       <c r="J205">
-        <v>219.295991001456</v>
+        <v>180.34588537671701</v>
       </c>
       <c r="K205">
-        <v>8.1650488043878493</v>
+        <v>16.132651933271902</v>
       </c>
       <c r="L205">
-        <v>59.975050029395703</v>
+        <v>84.464891429798698</v>
       </c>
       <c r="M205">
-        <v>148.92675956644101</v>
+        <v>207.652535546183</v>
       </c>
       <c r="N205">
-        <v>1726.3835514995001</v>
+        <v>2113.7326680618999</v>
       </c>
       <c r="O205">
-        <v>2842.7098723583699</v>
+        <v>2446.30702597558</v>
       </c>
       <c r="P205">
-        <v>214.04471315669801</v>
+        <v>225.467609011468</v>
       </c>
       <c r="Q205">
-        <v>23.376949780771799</v>
+        <v>24.772932193993</v>
       </c>
       <c r="R205">
-        <v>5229.0168558382002</v>
+        <v>5915.7983947706698</v>
       </c>
       <c r="S205">
-        <v>144.360230473234</v>
+        <v>166.971860675551</v>
       </c>
       <c r="T205">
         <v>5831.0999951362601</v>
@@ -16353,10 +16353,10 @@
         <v>450</v>
       </c>
       <c r="W205">
-        <v>1275.0390536392599</v>
+        <v>1283.3682796374701</v>
       </c>
       <c r="X205">
-        <v>1.9246013266885</v>
+        <v>1.78694717005263</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.25">
@@ -16462,7 +16462,7 @@
         <v>25</v>
       </c>
       <c r="J207">
-        <v>177.33039470179199</v>
+        <v>177.32302555643099</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -16474,22 +16474,22 @@
         <v>0</v>
       </c>
       <c r="N207">
-        <v>0</v>
+        <v>0.69299653990574395</v>
       </c>
       <c r="O207">
-        <v>191.74442837964099</v>
+        <v>191.047595067213</v>
       </c>
       <c r="P207">
-        <v>10.2188543619709</v>
+        <v>10.218333692299399</v>
       </c>
       <c r="Q207">
-        <v>1.76754220739972</v>
+        <v>1.7675266432232599</v>
       </c>
       <c r="R207">
-        <v>4042.0298124726801</v>
+        <v>4042.0637887836601</v>
       </c>
       <c r="S207">
-        <v>161.11412873408199</v>
+        <v>161.11354695036499</v>
       </c>
       <c r="T207">
         <v>911.3000010252</v>
@@ -16501,10 +16501,10 @@
         <v>450</v>
       </c>
       <c r="W207">
-        <v>734.70093256232997</v>
+        <v>734.70115485656402</v>
       </c>
       <c r="X207">
-        <v>6.0871513521162397</v>
+        <v>6.0467306168268298</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.25">
@@ -16610,34 +16610,34 @@
         <v>27</v>
       </c>
       <c r="J209">
-        <v>313.52627488257002</v>
+        <v>307.89052237587498</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0</v>
+        <v>0.55879251860883905</v>
       </c>
       <c r="M209">
-        <v>6.0728852224306999</v>
+        <v>19.102799768989101</v>
       </c>
       <c r="N209">
-        <v>15.799782399698801</v>
+        <v>91.210254527386198</v>
       </c>
       <c r="O209">
-        <v>1410.19489801279</v>
+        <v>1335.7170407050501</v>
       </c>
       <c r="P209">
-        <v>22.404781912849401</v>
+        <v>22.631522183413601</v>
       </c>
       <c r="Q209">
-        <v>3.8538737240860201</v>
+        <v>3.8630193014302301</v>
       </c>
       <c r="R209">
-        <v>7049.1005386898496</v>
+        <v>7123.9037484987703</v>
       </c>
       <c r="S209">
-        <v>218.774396507012</v>
+        <v>222.57224017393401</v>
       </c>
       <c r="T209">
         <v>2529.80000162125</v>
@@ -16649,10 +16649,10 @@
         <v>450</v>
       </c>
       <c r="W209">
-        <v>1115.4423622844699</v>
+        <v>1114.61785141567</v>
       </c>
       <c r="X209">
-        <v>2.4622275919310801</v>
+        <v>2.4858660806010699</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.25">
@@ -16758,34 +16758,34 @@
         <v>29</v>
       </c>
       <c r="J211">
-        <v>428.76310104689298</v>
+        <v>428.43970394618998</v>
       </c>
       <c r="K211">
-        <v>0</v>
+        <v>0.75141788280885702</v>
       </c>
       <c r="L211">
-        <v>9.69138335403753</v>
+        <v>26.7057520738934</v>
       </c>
       <c r="M211">
-        <v>13.954953771466499</v>
+        <v>53.6223102470762</v>
       </c>
       <c r="N211">
-        <v>324.42841966616402</v>
+        <v>824.29172686716299</v>
       </c>
       <c r="O211">
-        <v>4447.8334243638501</v>
+        <v>3948.0013322978102</v>
       </c>
       <c r="P211">
-        <v>25.573697094915701</v>
+        <v>25.7028064564484</v>
       </c>
       <c r="Q211">
-        <v>3.6710264199395999</v>
+        <v>3.6805942436032399</v>
       </c>
       <c r="R211">
-        <v>3348.1052500221899</v>
+        <v>3360.2911154141102</v>
       </c>
       <c r="S211">
-        <v>111.659588202408</v>
+        <v>111.978609602079</v>
       </c>
       <c r="T211">
         <v>5831.0999951362601</v>
@@ -16797,10 +16797,10 @@
         <v>450</v>
       </c>
       <c r="W211">
-        <v>1074.0646884396999</v>
+        <v>1074.29670229366</v>
       </c>
       <c r="X211">
-        <v>0.64302316717385199</v>
+        <v>0.63187817892356601</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.25">
@@ -16906,7 +16906,7 @@
         <v>25</v>
       </c>
       <c r="J213">
-        <v>17.497833697961202</v>
+        <v>17.1380266346656</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -16918,22 +16918,22 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <v>0</v>
+        <v>0.63128242731303597</v>
       </c>
       <c r="O213">
-        <v>134.31627124262701</v>
+        <v>133.66103042101599</v>
       </c>
       <c r="P213">
-        <v>0.91011227131334604</v>
+        <v>0.90963875681969197</v>
       </c>
       <c r="Q213">
-        <v>0.36266764926195899</v>
+        <v>0.36254944832247799</v>
       </c>
       <c r="R213">
-        <v>8859.0490134444008</v>
+        <v>8869.8667538123009</v>
       </c>
       <c r="S213">
-        <v>336.67799564008601</v>
+        <v>337.01086247116098</v>
       </c>
       <c r="T213">
         <v>911.3000010252</v>
@@ -16945,10 +16945,10 @@
         <v>450</v>
       </c>
       <c r="W213">
-        <v>956.78088158167304</v>
+        <v>956.854944075709</v>
       </c>
       <c r="X213">
-        <v>22.217152066805799</v>
+        <v>21.729160348248101</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.25">
@@ -17054,34 +17054,34 @@
         <v>27</v>
       </c>
       <c r="J215">
-        <v>210.90664863339799</v>
+        <v>200.13658614413299</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0</v>
+        <v>1.42264497724734</v>
       </c>
       <c r="M215">
-        <v>6.0728852224306999</v>
+        <v>19.966652227627499</v>
       </c>
       <c r="N215">
-        <v>9.7163100622435792</v>
+        <v>71.395961743035599</v>
       </c>
       <c r="O215">
-        <v>1307.49142270229</v>
+        <v>1243.3929082182899</v>
       </c>
       <c r="P215">
-        <v>4.9040227186689496</v>
+        <v>4.80043042044929</v>
       </c>
       <c r="Q215">
-        <v>0.69762973354109203</v>
+        <v>0.697544086179122</v>
       </c>
       <c r="R215">
-        <v>11578.5835237315</v>
+        <v>11795.885812871</v>
       </c>
       <c r="S215">
-        <v>390.32076788187601</v>
+        <v>397.89291059563698</v>
       </c>
       <c r="T215">
         <v>2529.80000162125</v>
@@ -17093,10 +17093,10 @@
         <v>450</v>
       </c>
       <c r="W215">
-        <v>1294.3084086525801</v>
+        <v>1296.4238245542099</v>
       </c>
       <c r="X215">
-        <v>4.6122745415688698E-2</v>
+        <v>-7.6745405035654898E-2</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.25">
@@ -17202,34 +17202,34 @@
         <v>29</v>
       </c>
       <c r="J217">
-        <v>432.513857261027</v>
+        <v>430.70522146213199</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>0.664393259120866</v>
       </c>
       <c r="L217">
-        <v>8.7233609178755902</v>
+        <v>25.0631010483762</v>
       </c>
       <c r="M217">
-        <v>13.811995364121501</v>
+        <v>53.630087103504302</v>
       </c>
       <c r="N217">
-        <v>314.75369339515498</v>
+        <v>820.73661747743995</v>
       </c>
       <c r="O217">
-        <v>4384.0305233479103</v>
+        <v>3879.6516382585301</v>
       </c>
       <c r="P217">
-        <v>6.3020106541946204</v>
+        <v>6.2450718445494804</v>
       </c>
       <c r="Q217">
-        <v>0.70161513791159003</v>
+        <v>0.70131287154475996</v>
       </c>
       <c r="R217">
-        <v>6392.0553051181396</v>
+        <v>6358.6624245794901</v>
       </c>
       <c r="S217">
-        <v>210.211118112816</v>
+        <v>208.402122346797</v>
       </c>
       <c r="T217">
         <v>5831.0999951362601</v>
@@ -17241,10 +17241,10 @@
         <v>450</v>
       </c>
       <c r="W217">
-        <v>1155.46486179352</v>
+        <v>1155.7865669252601</v>
       </c>
       <c r="X217">
-        <v>0.29353670328670001</v>
+        <v>0.300364580431145</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Validation/System/NZRiskIndexTool/RITTemplate2025_7740Obs.xlsx
+++ b/Tests/Validation/System/NZRiskIndexTool/RITTemplate2025_7740Obs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaUnderVC\ApsimX\Tests\Validation\System\NZRiskIndexTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232FAE7-974E-40D1-9674-D7D68658F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6EA7C-CF12-4342-931F-770392387F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="630" windowWidth="38940" windowHeight="19095" xr2:uid="{EF6CDDDD-7646-4185-8460-A519E6392745}"/>
+    <workbookView xWindow="3900" yWindow="1785" windowWidth="38940" windowHeight="19095" xr2:uid="{EF6CDDDD-7646-4185-8460-A519E6392745}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarked2025" sheetId="1" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:X217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X217"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
